--- a/USHPRR/UMo_pressure_grad.xlsx
+++ b/USHPRR/UMo_pressure_grad.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10708"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/benjaminbeeler/projects/spreadsheets/USHPRR/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C49B38B-B663-1045-896E-8CAD2F535499}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBA07622-9BBD-2E4B-96D8-5B0B615B5C00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2500" yWindow="2080" windowWidth="28040" windowHeight="17440" activeTab="6" xr2:uid="{6E4A99DF-98A3-AB47-B80B-7671C87299C2}"/>
+    <workbookView xWindow="2500" yWindow="2080" windowWidth="28040" windowHeight="17440" activeTab="7" xr2:uid="{6E4A99DF-98A3-AB47-B80B-7671C87299C2}"/>
   </bookViews>
   <sheets>
     <sheet name="1E-5" sheetId="1" r:id="rId1"/>
@@ -20,8 +20,9 @@
     <sheet name="3E-3" sheetId="5" r:id="rId5"/>
     <sheet name="4E-3" sheetId="6" r:id="rId6"/>
     <sheet name="5E-3" sheetId="7" r:id="rId7"/>
+    <sheet name="Sheet1" sheetId="8" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -41,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="12">
   <si>
     <t>chunk</t>
   </si>
@@ -2176,6 +2177,1599 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'5E-3'!$D$4:$D$45</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="42"/>
+                <c:pt idx="0">
+                  <c:v>3.3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.9</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>16.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>23.1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>29.7</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>36.299999999999997</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>42.9</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>49.5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>56.1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>62.7</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>69.3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>75.900000000000006</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>82.5</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>89.1</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>95.7</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>102.3</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>108.9</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>115.5</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>122.1</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>128.69999999999999</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>135.30000000000001</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>141.9</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>148.5</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>155.1</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>161.69999999999999</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>168.3</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>174.9</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>181.5</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>188.1</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>194.7</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>201.3</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>207.9</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>214.5</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>221.1</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>227.7</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>234.3</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>240.9</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>247.5</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>254.1</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>260.7</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>267.3</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>273.89999999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'5E-3'!$J$4:$J$45</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="42"/>
+                <c:pt idx="0">
+                  <c:v>-10594.316057420478</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-50031.109225570624</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-47150.493115016834</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-38516.767046393034</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-39616.257902381687</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-39874.698384138683</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-34992.928895091936</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-29408.648230611874</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-29885.317914433042</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-28825.914951520077</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-24751.582105426736</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-20665.650956238038</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-18768.609137795156</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-17798.068196270975</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-14922.808469099082</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-11529.713197328974</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-9153.3354674605034</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-6701.5627712782161</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-4229.6582951950277</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-1739.7255758640047</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1376.2813141938109</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>3595.9582271668132</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>5882.8078844235097</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>8219.3597984214321</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>11096.444380847084</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>14197.273405647664</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>16737.805565130402</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>19240.668341670687</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>22112.116732373506</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>25311.741328594024</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>27381.098964737681</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>29171.403635020404</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>31249.639037272806</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>33945.073931502135</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>36218.927414735415</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>39403.600078665513</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>42414.824458385003</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>45882.208953214955</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>48303.803963825245</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>50909.996889682865</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>47338.402328314231</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>4448.0320863049355</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-3E50-A74D-B798-02F4830BB189}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1812717887"/>
+        <c:axId val="1901736767"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1812717887"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1901736767"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1901736767"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00E+00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1812717887"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$D$4:$D$45</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="42"/>
+                <c:pt idx="0">
+                  <c:v>3.3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.9</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>16.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>23.1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>29.7</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>36.299999999999997</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>42.9</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>49.5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>56.1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>62.7</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>69.3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>75.900000000000006</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>82.5</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>89.1</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>95.7</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>102.3</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>108.9</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>115.5</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>122.1</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>128.69999999999999</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>135.30000000000001</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>141.9</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>148.5</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>155.1</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>161.69999999999999</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>168.3</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>174.9</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>181.5</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>188.1</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>194.7</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>201.3</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>207.9</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>214.5</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>221.1</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>227.7</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>234.3</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>240.9</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>247.5</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>254.1</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>260.7</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>267.3</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>273.89999999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$F$4:$F$45</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="42"/>
+                <c:pt idx="0">
+                  <c:v>320671</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>971963</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>937545</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>899377</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>831531</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>776826</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>730081</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>673104</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>618322</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>557819</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>494734</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>467673</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>402802</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>348309</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>292338</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>237694</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>186547</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>148836</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>83386.899999999994</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>33107.5</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-19503.5</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-87392.2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-119201</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-167786</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-224053</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-277990</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-339997</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-376480</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-430529</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-489424</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-544877</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>-578603</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>-638304</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>-683200</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>-740599</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>-785276</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>-841932</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>-896667</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>-942989</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>-992903</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>-934183</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>-188566</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-5A46-4646-967A-CEC037F33978}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="534044559"/>
+        <c:axId val="534082911"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="534044559"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="534082911"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="534082911"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="534044559"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$D$4:$D$45</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="42"/>
+                <c:pt idx="0">
+                  <c:v>3.3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.9</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>16.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>23.1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>29.7</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>36.299999999999997</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>42.9</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>49.5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>56.1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>62.7</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>69.3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>75.900000000000006</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>82.5</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>89.1</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>95.7</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>102.3</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>108.9</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>115.5</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>122.1</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>128.69999999999999</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>135.30000000000001</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>141.9</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>148.5</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>155.1</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>161.69999999999999</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>168.3</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>174.9</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>181.5</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>188.1</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>194.7</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>201.3</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>207.9</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>214.5</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>221.1</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>227.7</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>234.3</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>240.9</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>247.5</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>254.1</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>260.7</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>267.3</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>273.89999999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$T$4:$T$45</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="42"/>
+                <c:pt idx="0">
+                  <c:v>-1.1111712036409975</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-4.4186067155188455</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-4.1690131390184533</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-3.317097262393089</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-3.5348419629783474</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-3.3889009219760267</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-2.9572351890957234</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-2.5649945055721881</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-2.7566956626855315</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-2.5652400869338816</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-2.0928631705247569</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-1.7913669122421665</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-1.6781381720744089</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-1.5984359498525069</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-1.2392987276222702</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-1.0030433083751755</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-0.63255957046380928</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-0.68007057259555781</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-0.41966592941432967</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-0.12922046234005966</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.13216147029033007</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.39027444106102649</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.50480595859778321</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.72715383140242695</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.9393837102149234</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1.2948644458654746</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1.5874873483781422</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1.6958301076088727</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1.9094027393428723</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2.2058782553912168</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2.3294900340675686</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2.4065965450534623</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2.7333922910831125</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2.9038621457856557</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>3.1764168209172468</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>3.2503250415554823</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>3.5617902411948026</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>3.9366765808643294</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>4.1160039781218813</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>4.3006320710288994</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>4.1421279711468522</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.34758668171728985</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-385E-834A-9FE7-FE6D350E20DF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="534044559"/>
+        <c:axId val="534082911"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="534044559"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="534082911"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="534082911"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00E+00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="534044559"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
@@ -5431,130 +7025,130 @@
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="42"/>
                 <c:pt idx="0">
-                  <c:v>-0.2737396495820974</c:v>
+                  <c:v>-0.27359312649085099</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-0.79596776462806218</c:v>
+                  <c:v>-0.79272568443003755</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-0.84998489111322295</c:v>
+                  <c:v>-0.82575536917926673</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>-0.88042456873966612</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>-0.75291883149137218</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>-0.6209820096016353</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>-0.5484779724982014</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>-0.56133762222087424</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>-0.4760168062213313</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>-0.4683725628851978</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>-0.44104302013161173</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0</c:v>
+                  <c:v>-0.37141396885588662</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0</c:v>
+                  <c:v>-0.32390880868119154</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0</c:v>
+                  <c:v>-0.3192986077024651</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0</c:v>
+                  <c:v>-0.38299135242387372</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0</c:v>
+                  <c:v>-0.17617571622799191</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0</c:v>
+                  <c:v>-0.11599925246640515</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0</c:v>
+                  <c:v>-1.6467502392329594E-2</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0</c:v>
+                  <c:v>-0.13427228106775194</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0</c:v>
+                  <c:v>-0.10666936180024084</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0</c:v>
+                  <c:v>-7.245104147447895E-2</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0</c:v>
+                  <c:v>0.11225387586062209</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0</c:v>
+                  <c:v>8.9565098135762397E-2</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0</c:v>
+                  <c:v>-5.0489181708302369E-2</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0</c:v>
+                  <c:v>0.11020276935072634</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0</c:v>
+                  <c:v>0.29501674980397025</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0</c:v>
+                  <c:v>0.16461763610250571</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.39707090563824693</c:v>
+                  <c:v>0.3735731128631628</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.26758347417822737</c:v>
+                  <c:v>0.27075441981865173</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.45384077460251587</c:v>
+                  <c:v>0.45921568952930286</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.48143937068510195</c:v>
+                  <c:v>0.48741094287536346</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.54575814668450295</c:v>
+                  <c:v>0.51882317294585956</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.50744465496655911</c:v>
+                  <c:v>0.48958654994403333</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.70417574203002331</c:v>
+                  <c:v>0.72026102027420014</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.56082598232677183</c:v>
+                  <c:v>0.56740582815456986</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0.77842546955013658</c:v>
+                  <c:v>0.76820849014519943</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0.65792725913989614</c:v>
+                  <c:v>0.65789986828236047</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0.85331473697611404</c:v>
+                  <c:v>0.85262639216697411</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0.76985973975296973</c:v>
+                  <c:v>0.76240710886691132</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0.78779496974563334</c:v>
+                  <c:v>0.76670542498396643</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>0.80382598982881737</c:v>
+                  <c:v>0.78610362197170836</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>0.15361516692238492</c:v>
+                  <c:v>0.15159536437053539</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6385,6 +7979,126 @@
 </file>
 
 <file path=xl/charts/colors12.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors13.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors14.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors15.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -8808,6 +10522,1554 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style13.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style14.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style15.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -13213,15 +16475,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>565150</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>158750</xdr:rowOff>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>44450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>184150</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>146050</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -13405,6 +16667,123 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>444500</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{74DE11DE-BE2C-3444-81BC-BFB95575111A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>565150</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>82550</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>184150</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>184150</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{77163F0F-8C08-0C8D-D54C-EE51202ABA6B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>444500</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6E8811B9-7F5A-3F46-86DB-8C5B8DF7C0EC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -13796,7 +17175,7 @@
         <v>863.30643952382661</v>
       </c>
       <c r="K4" s="1">
-        <f t="shared" ref="K4:L14" si="0">-$E4*G4/$I$4</f>
+        <f t="shared" ref="K4" si="0">-$E4*G4/$I$4</f>
         <v>-1337.2839954437893</v>
       </c>
       <c r="L4" s="1">
@@ -17567,15 +20946,15 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28A85DAA-9808-974D-A26C-41F895096102}">
-  <dimension ref="C1:N45"/>
+  <dimension ref="C1:P45"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L23" sqref="L23"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="1" spans="3:16" x14ac:dyDescent="0.2">
       <c r="I1">
         <v>68.645799999999994</v>
       </c>
@@ -17587,7 +20966,7 @@
         <v>6.6000000000000005</v>
       </c>
     </row>
-    <row r="2" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="2" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C2" t="s">
         <v>0</v>
       </c>
@@ -17625,7 +21004,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="4" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C4">
         <v>1</v>
       </c>
@@ -17633,16 +21012,16 @@
         <v>3.3</v>
       </c>
       <c r="E4">
-        <v>1445.29</v>
+        <v>1444.72</v>
       </c>
       <c r="F4" s="1">
-        <v>33731.699999999997</v>
+        <v>33019.800000000003</v>
       </c>
       <c r="G4" s="1">
-        <v>63502</v>
+        <v>63981</v>
       </c>
       <c r="H4" s="1">
-        <v>79442.899999999994</v>
+        <v>79650.899999999994</v>
       </c>
       <c r="I4">
         <f>(K1*I1*J1)</f>
@@ -17650,26 +21029,30 @@
       </c>
       <c r="J4" s="1">
         <f>-$E4*F4/$I$4</f>
-        <v>-1567.8992698198463</v>
+        <v>-1534.2038007167669</v>
       </c>
       <c r="K4" s="1">
         <f t="shared" ref="K4:L6" si="0">-$E4*G4/$I$4</f>
-        <v>-2951.6668128822407</v>
+        <v>-2972.7585683032439</v>
       </c>
       <c r="L4" s="1">
         <f>-$E4*H4/$I$4</f>
-        <v>-3692.623404760835</v>
+        <v>-3700.8314257055195</v>
       </c>
       <c r="M4" s="1">
         <f>SUM(J4:L4)/3</f>
-        <v>-2737.396495820974</v>
+        <v>-2735.93126490851</v>
       </c>
       <c r="N4" s="1">
         <f>M4*0.0001</f>
-        <v>-0.2737396495820974</v>
-      </c>
-    </row>
-    <row r="5" spans="3:14" x14ac:dyDescent="0.2">
+        <v>-0.27359312649085099</v>
+      </c>
+      <c r="P4" s="1">
+        <f>MAX(N4:N45)</f>
+        <v>0.85262639216697411</v>
+      </c>
+    </row>
+    <row r="5" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C5">
         <v>2</v>
       </c>
@@ -17677,39 +21060,43 @@
         <v>9.9</v>
       </c>
       <c r="E5">
-        <v>1563.23</v>
+        <v>1563.78</v>
       </c>
       <c r="F5" s="1">
-        <v>195856</v>
+        <v>192596</v>
       </c>
       <c r="G5" s="1">
-        <v>145720</v>
+        <v>141801</v>
       </c>
       <c r="H5" s="1">
-        <v>133397</v>
+        <v>138475</v>
       </c>
       <c r="J5" s="1">
         <f t="shared" ref="J5:J6" si="1">-$E5*F5/$I$4</f>
-        <v>-9846.5636473437698</v>
+        <v>-9686.0754655691726</v>
       </c>
       <c r="K5" s="1">
         <f t="shared" si="0"/>
-        <v>-7326.0010144745847</v>
+        <v>-7131.48345289193</v>
       </c>
       <c r="L5" s="1">
         <f t="shared" si="0"/>
-        <v>-6706.4682770235122</v>
+        <v>-6964.2116144400252</v>
       </c>
       <c r="M5" s="1">
         <f t="shared" ref="M5:M6" si="2">SUM(J5:L5)/3</f>
-        <v>-7959.677646280622</v>
+        <v>-7927.2568443003756</v>
       </c>
       <c r="N5" s="1">
         <f t="shared" ref="N5:N45" si="3">M5*0.0001</f>
-        <v>-0.79596776462806218</v>
-      </c>
-    </row>
-    <row r="6" spans="3:14" x14ac:dyDescent="0.2">
+        <v>-0.79272568443003755</v>
+      </c>
+      <c r="P5" s="1">
+        <f>MIN(N4:N45)</f>
+        <v>-0.88042456873966612</v>
+      </c>
+    </row>
+    <row r="6" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C6">
         <v>3</v>
       </c>
@@ -17717,636 +21104,996 @@
         <v>16.5</v>
       </c>
       <c r="E6">
-        <v>1597.09</v>
+        <v>1597.19</v>
       </c>
       <c r="F6" s="1">
-        <v>187985</v>
+        <v>184217</v>
       </c>
       <c r="G6" s="1">
-        <v>146477</v>
+        <v>138088</v>
       </c>
       <c r="H6" s="1">
-        <v>161991</v>
+        <v>159966</v>
       </c>
       <c r="J6" s="1">
         <f t="shared" si="1"/>
-        <v>-9655.5611360543226</v>
+        <v>-9462.6160505668176</v>
       </c>
       <c r="K6" s="1">
         <f t="shared" si="0"/>
-        <v>-7523.5663937326326</v>
+        <v>-7093.1223784486265</v>
       </c>
       <c r="L6" s="1">
         <f t="shared" si="0"/>
-        <v>-8320.4192036097338</v>
+        <v>-8216.9226463625582</v>
       </c>
       <c r="M6" s="1">
         <f t="shared" si="2"/>
-        <v>-8499.8489111322287</v>
+        <v>-8257.5536917926675</v>
       </c>
       <c r="N6" s="1">
         <f t="shared" si="3"/>
-        <v>-0.84998489111322295</v>
-      </c>
-    </row>
-    <row r="7" spans="3:14" x14ac:dyDescent="0.2">
+        <v>-0.82575536917926673</v>
+      </c>
+    </row>
+    <row r="7" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C7">
         <v>4</v>
       </c>
+      <c r="D7">
+        <v>23.1</v>
+      </c>
+      <c r="E7">
+        <v>1592.38</v>
+      </c>
+      <c r="F7">
+        <v>173023</v>
+      </c>
+      <c r="G7">
+        <v>169420</v>
+      </c>
+      <c r="H7">
+        <v>173310</v>
+      </c>
       <c r="J7" s="1">
         <f t="shared" ref="J7:J45" si="4">-$E7*F7/$I$4</f>
-        <v>0</v>
+        <v>-8860.8520061178442</v>
       </c>
       <c r="K7" s="1">
         <f t="shared" ref="K7:K45" si="5">-$E7*G7/$I$4</f>
-        <v>0</v>
+        <v>-8676.3352090559365</v>
       </c>
       <c r="L7" s="1">
         <f t="shared" ref="L7:L45" si="6">-$E7*H7/$I$4</f>
-        <v>0</v>
+        <v>-8875.5498470161983</v>
       </c>
       <c r="M7" s="1">
         <f t="shared" ref="M7:M45" si="7">SUM(J7:L7)/3</f>
-        <v>0</v>
+        <v>-8804.2456873966603</v>
       </c>
       <c r="N7" s="1">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="3:14" x14ac:dyDescent="0.2">
+        <v>-0.88042456873966612</v>
+      </c>
+    </row>
+    <row r="8" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C8">
         <v>5</v>
       </c>
+      <c r="D8">
+        <v>29.7</v>
+      </c>
+      <c r="E8">
+        <v>1536.2</v>
+      </c>
+      <c r="F8">
+        <v>161978</v>
+      </c>
+      <c r="G8">
+        <v>149744</v>
+      </c>
+      <c r="H8">
+        <v>145468</v>
+      </c>
       <c r="J8" s="1">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>-8002.5560371383544</v>
       </c>
       <c r="K8" s="1">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>-7398.1327786813381</v>
       </c>
       <c r="L8" s="1">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>-7186.8761289214717</v>
       </c>
       <c r="M8" s="1">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>-7529.1883149137211</v>
       </c>
       <c r="N8" s="1">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="3:14" x14ac:dyDescent="0.2">
+        <v>-0.75291883149137218</v>
+      </c>
+    </row>
+    <row r="9" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C9">
         <v>6</v>
       </c>
+      <c r="D9">
+        <v>36.299999999999997</v>
+      </c>
+      <c r="E9">
+        <v>1419.9</v>
+      </c>
+      <c r="F9">
+        <v>158571</v>
+      </c>
+      <c r="G9">
+        <v>128579</v>
+      </c>
+      <c r="H9">
+        <v>120810</v>
+      </c>
       <c r="J9" s="1">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>-7241.131844632383</v>
       </c>
       <c r="K9" s="1">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>-5871.5495989240608</v>
       </c>
       <c r="L9" s="1">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>-5516.7788444926127</v>
       </c>
       <c r="M9" s="1">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>-6209.8200960163522</v>
       </c>
       <c r="N9" s="1">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="3:14" x14ac:dyDescent="0.2">
+        <v>-0.6209820096016353</v>
+      </c>
+    </row>
+    <row r="10" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C10">
         <v>7</v>
       </c>
+      <c r="D10">
+        <v>42.9</v>
+      </c>
+      <c r="E10">
+        <v>1473.52</v>
+      </c>
+      <c r="F10">
+        <v>140722</v>
+      </c>
+      <c r="G10">
+        <v>110426</v>
+      </c>
+      <c r="H10">
+        <v>96067.8</v>
+      </c>
       <c r="J10" s="1">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>-6668.727394826954</v>
       </c>
       <c r="K10" s="1">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>-5233.0189401881817</v>
       </c>
       <c r="L10" s="1">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>-4552.592839930905</v>
       </c>
       <c r="M10" s="1">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>-5484.7797249820142</v>
       </c>
       <c r="N10" s="1">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="3:14" x14ac:dyDescent="0.2">
+        <v>-0.5484779724982014</v>
+      </c>
+    </row>
+    <row r="11" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C11">
         <v>8</v>
       </c>
+      <c r="D11">
+        <v>49.5</v>
+      </c>
+      <c r="E11">
+        <v>1579.35</v>
+      </c>
+      <c r="F11">
+        <v>132819</v>
+      </c>
+      <c r="G11">
+        <v>106858</v>
+      </c>
+      <c r="H11">
+        <v>91867.7</v>
+      </c>
       <c r="J11" s="1">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>-6746.2669419014337</v>
       </c>
       <c r="K11" s="1">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>-5427.6315352299252</v>
       </c>
       <c r="L11" s="1">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>-4666.2301894948641</v>
       </c>
       <c r="M11" s="1">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>-5613.3762222087416</v>
       </c>
       <c r="N11" s="1">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="3:14" x14ac:dyDescent="0.2">
+        <v>-0.56133762222087424</v>
+      </c>
+    </row>
+    <row r="12" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C12">
         <v>9</v>
       </c>
+      <c r="D12">
+        <v>56.1</v>
+      </c>
+      <c r="E12">
+        <v>1598.21</v>
+      </c>
+      <c r="F12">
+        <v>120387</v>
+      </c>
+      <c r="G12">
+        <v>77552.100000000006</v>
+      </c>
+      <c r="H12">
+        <v>79894.5</v>
+      </c>
       <c r="J12" s="1">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>-6187.8299007644218</v>
       </c>
       <c r="K12" s="1">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>-3986.1380651322197</v>
       </c>
       <c r="L12" s="1">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>-4106.5362207432954</v>
       </c>
       <c r="M12" s="1">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>-4760.1680622133126</v>
       </c>
       <c r="N12" s="1">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="3:14" x14ac:dyDescent="0.2">
+        <v>-0.4760168062213313</v>
+      </c>
+    </row>
+    <row r="13" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C13">
         <v>10</v>
       </c>
+      <c r="D13">
+        <v>62.7</v>
+      </c>
+      <c r="E13">
+        <v>1581.62</v>
+      </c>
+      <c r="F13">
+        <v>106616</v>
+      </c>
+      <c r="G13">
+        <v>88523.8</v>
+      </c>
+      <c r="H13">
+        <v>81099.600000000006</v>
+      </c>
       <c r="J13" s="1">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>-5423.1231132743815</v>
       </c>
       <c r="K13" s="1">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>-4502.8463444030795</v>
       </c>
       <c r="L13" s="1">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>-4125.2074288784706</v>
       </c>
       <c r="M13" s="1">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>-4683.7256288519775</v>
       </c>
       <c r="N13" s="1">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="3:14" x14ac:dyDescent="0.2">
+        <v>-0.4683725628851978</v>
+      </c>
+    </row>
+    <row r="14" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C14">
         <v>11</v>
       </c>
+      <c r="D14">
+        <v>69.3</v>
+      </c>
+      <c r="E14">
+        <v>1479.82</v>
+      </c>
+      <c r="F14">
+        <v>107521</v>
+      </c>
+      <c r="G14">
+        <v>87131.6</v>
+      </c>
+      <c r="H14">
+        <v>83362.5</v>
+      </c>
       <c r="J14" s="1">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>-5117.137871385873</v>
       </c>
       <c r="K14" s="1">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>-4146.7658425279278</v>
       </c>
       <c r="L14" s="1">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>-3967.3868900345501</v>
       </c>
       <c r="M14" s="1">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>-4410.4302013161168</v>
       </c>
       <c r="N14" s="1">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="3:14" x14ac:dyDescent="0.2">
+        <v>-0.44104302013161173</v>
+      </c>
+    </row>
+    <row r="15" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C15">
         <v>12</v>
       </c>
+      <c r="D15">
+        <v>75.900000000000006</v>
+      </c>
+      <c r="E15">
+        <v>1414.7</v>
+      </c>
+      <c r="F15">
+        <v>104023</v>
+      </c>
+      <c r="G15">
+        <v>77371</v>
+      </c>
+      <c r="H15">
+        <v>63506.8</v>
+      </c>
       <c r="J15" s="1">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>-4732.8055215371969</v>
       </c>
       <c r="K15" s="1">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>-3520.2012632480746</v>
       </c>
       <c r="L15" s="1">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>-2889.4122808913266</v>
       </c>
       <c r="M15" s="1">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>-3714.1396885588661</v>
       </c>
       <c r="N15" s="1">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="3:14" x14ac:dyDescent="0.2">
+        <v>-0.37141396885588662</v>
+      </c>
+    </row>
+    <row r="16" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C16">
         <v>13</v>
       </c>
+      <c r="D16">
+        <v>82.5</v>
+      </c>
+      <c r="E16">
+        <v>1533.07</v>
+      </c>
+      <c r="F16">
+        <v>76829.7</v>
+      </c>
+      <c r="G16">
+        <v>63160.3</v>
+      </c>
+      <c r="H16">
+        <v>57096.6</v>
+      </c>
       <c r="J16" s="1">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>-3788.0530586554346</v>
       </c>
       <c r="K16" s="1">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>-3114.0895721393531</v>
       </c>
       <c r="L16" s="1">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>-2815.1216296409575</v>
       </c>
       <c r="M16" s="1">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>-3239.0880868119152</v>
       </c>
       <c r="N16" s="1">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>-0.32390880868119154</v>
       </c>
     </row>
     <row r="17" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C17">
         <v>14</v>
       </c>
+      <c r="D17">
+        <v>89.1</v>
+      </c>
+      <c r="E17">
+        <v>1592.01</v>
+      </c>
+      <c r="F17">
+        <v>66445.2</v>
+      </c>
+      <c r="G17">
+        <v>58313.3</v>
+      </c>
+      <c r="H17">
+        <v>62330.2</v>
+      </c>
       <c r="J17" s="1">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>-3402.0002034080894</v>
       </c>
       <c r="K17" s="1">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>-2985.646193576014</v>
       </c>
       <c r="L17" s="1">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>-3191.3118340898495</v>
       </c>
       <c r="M17" s="1">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>-3192.986077024651</v>
       </c>
       <c r="N17" s="1">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>-0.3192986077024651</v>
       </c>
     </row>
     <row r="18" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C18">
         <v>15</v>
       </c>
+      <c r="D18">
+        <v>95.7</v>
+      </c>
+      <c r="E18">
+        <v>1598.55</v>
+      </c>
+      <c r="F18">
+        <v>63092.3</v>
+      </c>
+      <c r="G18">
+        <v>81290.899999999994</v>
+      </c>
+      <c r="H18">
+        <v>79107.3</v>
+      </c>
       <c r="J18" s="1">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>-3243.6016704780882</v>
       </c>
       <c r="K18" s="1">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>-4179.1993481719192</v>
       </c>
       <c r="L18" s="1">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>-4066.9395540662053</v>
       </c>
       <c r="M18" s="1">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>-3829.913524238737</v>
       </c>
       <c r="N18" s="1">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>-0.38299135242387372</v>
       </c>
     </row>
     <row r="19" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C19">
         <v>16</v>
       </c>
+      <c r="D19">
+        <v>102.3</v>
+      </c>
+      <c r="E19">
+        <v>1582.7</v>
+      </c>
+      <c r="F19">
+        <v>44933.599999999999</v>
+      </c>
+      <c r="G19">
+        <v>32300.1</v>
+      </c>
+      <c r="H19">
+        <v>26601.3</v>
+      </c>
       <c r="J19" s="1">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>-2287.1505261334128</v>
       </c>
       <c r="K19" s="1">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>-1644.0968609050208</v>
       </c>
       <c r="L19" s="1">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>-1354.0240998013235</v>
       </c>
       <c r="M19" s="1">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>-1761.7571622799189</v>
       </c>
       <c r="N19" s="1">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>-0.17617571622799191</v>
       </c>
     </row>
     <row r="20" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C20">
         <v>17</v>
       </c>
+      <c r="D20">
+        <v>108.9</v>
+      </c>
+      <c r="E20">
+        <v>1496.68</v>
+      </c>
+      <c r="F20">
+        <v>42319.9</v>
+      </c>
+      <c r="G20">
+        <v>5484.88</v>
+      </c>
+      <c r="H20">
+        <v>24492.6</v>
+      </c>
       <c r="J20" s="1">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>-2037.0351309216267</v>
       </c>
       <c r="K20" s="1">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>-264.01038870340926</v>
       </c>
       <c r="L20" s="1">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>-1178.9320543671186</v>
       </c>
       <c r="M20" s="1">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>-1159.9925246640514</v>
       </c>
       <c r="N20" s="1">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>-0.11599925246640515</v>
       </c>
     </row>
     <row r="21" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C21">
         <v>18</v>
       </c>
+      <c r="D21">
+        <v>115.5</v>
+      </c>
+      <c r="E21">
+        <v>1415.59</v>
+      </c>
+      <c r="F21">
+        <v>34206.699999999997</v>
+      </c>
+      <c r="G21">
+        <v>-8637.3799999999992</v>
+      </c>
+      <c r="H21">
+        <v>-14717.9</v>
+      </c>
       <c r="J21" s="1">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>-1557.3047050534415</v>
       </c>
       <c r="K21" s="1">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>393.22800835317332</v>
       </c>
       <c r="L21" s="1">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>670.05162493038051</v>
       </c>
       <c r="M21" s="1">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>-164.67502392329592</v>
       </c>
       <c r="N21" s="1">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>-1.6467502392329594E-2</v>
       </c>
     </row>
     <row r="22" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C22">
         <v>19</v>
       </c>
+      <c r="D22">
+        <v>122.1</v>
+      </c>
+      <c r="E22">
+        <v>1519.8</v>
+      </c>
+      <c r="F22">
+        <v>23745.7</v>
+      </c>
+      <c r="G22">
+        <v>22793.9</v>
+      </c>
+      <c r="H22">
+        <v>35873.5</v>
+      </c>
       <c r="J22" s="1">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>-1160.6368300247841</v>
       </c>
       <c r="K22" s="1">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>-1114.1149698640986</v>
       </c>
       <c r="L22" s="1">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>-1753.4166321436762</v>
       </c>
       <c r="M22" s="1">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>-1342.7228106775194</v>
       </c>
       <c r="N22" s="1">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>-0.13427228106775194</v>
       </c>
     </row>
     <row r="23" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C23">
         <v>20</v>
       </c>
+      <c r="D23">
+        <v>128.69999999999999</v>
+      </c>
+      <c r="E23">
+        <v>1587.22</v>
+      </c>
+      <c r="F23">
+        <v>8645.99</v>
+      </c>
+      <c r="G23">
+        <v>28666.7</v>
+      </c>
+      <c r="H23">
+        <v>25377.4</v>
+      </c>
       <c r="J23" s="1">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>-441.34355307095467</v>
       </c>
       <c r="K23" s="1">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>-1463.3215204758665</v>
       </c>
       <c r="L23" s="1">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>-1295.4157804604038</v>
       </c>
       <c r="M23" s="1">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>-1066.6936180024084</v>
       </c>
       <c r="N23" s="1">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>-0.10666936180024084</v>
       </c>
     </row>
     <row r="24" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C24">
         <v>21</v>
       </c>
+      <c r="D24">
+        <v>135.30000000000001</v>
+      </c>
+      <c r="E24">
+        <v>1598.57</v>
+      </c>
+      <c r="F24">
+        <v>1765.3</v>
+      </c>
+      <c r="G24">
+        <v>22363.9</v>
+      </c>
+      <c r="H24">
+        <v>18148.3</v>
+      </c>
       <c r="J24" s="1">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>-90.755950693558745</v>
       </c>
       <c r="K24" s="1">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>-1149.7518867703386</v>
       </c>
       <c r="L24" s="1">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>-933.02340677047084</v>
       </c>
       <c r="M24" s="1">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>-724.5104147447895</v>
       </c>
       <c r="N24" s="1">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>-7.245104147447895E-2</v>
       </c>
     </row>
     <row r="25" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C25">
         <v>22</v>
       </c>
+      <c r="D25">
+        <v>141.9</v>
+      </c>
+      <c r="E25">
+        <v>1593.13</v>
+      </c>
+      <c r="F25">
+        <v>-17932</v>
+      </c>
+      <c r="G25">
+        <v>-22709.200000000001</v>
+      </c>
+      <c r="H25">
+        <v>-25086.2</v>
+      </c>
       <c r="J25" s="1">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>918.76591890110149</v>
       </c>
       <c r="K25" s="1">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1163.5310620961909</v>
       </c>
       <c r="L25" s="1">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>1285.3192948213702</v>
       </c>
       <c r="M25" s="1">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>1122.5387586062209</v>
       </c>
       <c r="N25" s="1">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>0.11225387586062209</v>
       </c>
     </row>
     <row r="26" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C26">
         <v>23</v>
       </c>
+      <c r="D26">
+        <v>148.5</v>
+      </c>
+      <c r="E26">
+        <v>1551.12</v>
+      </c>
+      <c r="F26">
+        <v>-26577.3</v>
+      </c>
+      <c r="G26">
+        <v>-15353.6</v>
+      </c>
+      <c r="H26">
+        <v>-11932</v>
+      </c>
       <c r="J26" s="1">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1325.8096849688361</v>
       </c>
       <c r="K26" s="1">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>765.91495671635278</v>
       </c>
       <c r="L26" s="1">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>595.22830238768245</v>
       </c>
       <c r="M26" s="1">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>895.65098135762389</v>
       </c>
       <c r="N26" s="1">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>8.9565098135762397E-2</v>
       </c>
     </row>
     <row r="27" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C27">
         <v>24</v>
       </c>
+      <c r="D27">
+        <v>155.1</v>
+      </c>
+      <c r="E27">
+        <v>1481.35</v>
+      </c>
+      <c r="F27">
+        <v>-23120.400000000001</v>
+      </c>
+      <c r="G27">
+        <v>27654.7</v>
+      </c>
+      <c r="H27">
+        <v>27259.1</v>
+      </c>
       <c r="J27" s="1">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1101.4833991664632</v>
       </c>
       <c r="K27" s="1">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>-1317.5028528454866</v>
       </c>
       <c r="L27" s="1">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>-1298.6559975700477</v>
       </c>
       <c r="M27" s="1">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>-504.89181708302368</v>
       </c>
       <c r="N27" s="1">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>-5.0489181708302369E-2</v>
       </c>
     </row>
     <row r="28" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C28">
         <v>25</v>
       </c>
+      <c r="D28">
+        <v>161.69999999999999</v>
+      </c>
+      <c r="E28">
+        <v>1454.22</v>
+      </c>
+      <c r="F28">
+        <v>-36274.800000000003</v>
+      </c>
+      <c r="G28">
+        <v>-25770.9</v>
+      </c>
+      <c r="H28">
+        <v>-8644.42</v>
+      </c>
       <c r="J28" s="1">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1696.5242459527842</v>
       </c>
       <c r="K28" s="1">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1205.2707855046647</v>
       </c>
       <c r="L28" s="1">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>404.28804906434124</v>
       </c>
       <c r="M28" s="1">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>1102.0276935072634</v>
       </c>
       <c r="N28" s="1">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>0.11020276935072634</v>
       </c>
     </row>
     <row r="29" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C29">
         <v>26</v>
       </c>
+      <c r="D29">
+        <v>168.3</v>
+      </c>
+      <c r="E29">
+        <v>1531.02</v>
+      </c>
+      <c r="F29">
+        <v>-54584.6</v>
+      </c>
+      <c r="G29">
+        <v>-62952</v>
+      </c>
+      <c r="H29">
+        <v>-62210.6</v>
+      </c>
       <c r="J29" s="1">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>2687.6698966130984</v>
       </c>
       <c r="K29" s="1">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>3099.6690519228455</v>
       </c>
       <c r="L29" s="1">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>3063.1635455831647</v>
       </c>
       <c r="M29" s="1">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>2950.1674980397024</v>
       </c>
       <c r="N29" s="1">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>0.29501674980397025</v>
       </c>
     </row>
     <row r="30" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C30">
         <v>27</v>
       </c>
+      <c r="D30">
+        <v>174.9</v>
+      </c>
+      <c r="E30">
+        <v>1590.43</v>
+      </c>
+      <c r="F30">
+        <v>-62135.9</v>
+      </c>
+      <c r="G30">
+        <v>-13493.2</v>
+      </c>
+      <c r="H30">
+        <v>-20922.2</v>
+      </c>
       <c r="J30" s="1">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>3178.2062929556673</v>
       </c>
       <c r="K30" s="1">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>690.16740969567365</v>
       </c>
       <c r="L30" s="1">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>1070.1553804238301</v>
       </c>
       <c r="M30" s="1">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>1646.1763610250571</v>
       </c>
       <c r="N30" s="1">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>0.16461763610250571</v>
       </c>
     </row>
     <row r="31" spans="3:14" x14ac:dyDescent="0.2">
@@ -18357,36 +22104,36 @@
         <v>181.5</v>
       </c>
       <c r="E31">
-        <v>1586.93</v>
+        <v>1598.8</v>
       </c>
       <c r="F31">
-        <v>-85323.8</v>
+        <v>-81342.100000000006</v>
       </c>
       <c r="G31">
-        <v>-81969.5</v>
+        <v>-75869.399999999994</v>
       </c>
       <c r="H31">
-        <v>-66109.8</v>
+        <v>-60749</v>
       </c>
       <c r="J31" s="1">
         <f t="shared" si="4"/>
-        <v>4354.6463442640634</v>
+        <v>4182.4855655717447</v>
       </c>
       <c r="K31" s="1">
         <f t="shared" si="5"/>
-        <v>4183.4538958198427</v>
+        <v>3901.0877561384432</v>
       </c>
       <c r="L31" s="1">
         <f t="shared" si="6"/>
-        <v>3374.026929063501</v>
+        <v>3123.6200641846954</v>
       </c>
       <c r="M31" s="1">
         <f t="shared" si="7"/>
-        <v>3970.709056382469</v>
+        <v>3735.7311286316276</v>
       </c>
       <c r="N31" s="1">
         <f t="shared" si="3"/>
-        <v>0.39707090563824693</v>
+        <v>0.3735731128631628</v>
       </c>
     </row>
     <row r="32" spans="3:14" x14ac:dyDescent="0.2">
@@ -18397,36 +22144,36 @@
         <v>188.1</v>
       </c>
       <c r="E32">
-        <v>1575.36</v>
+        <v>1595.01</v>
       </c>
       <c r="F32">
-        <v>-77886.2</v>
+        <v>-78503.5</v>
       </c>
       <c r="G32">
-        <v>-36723.800000000003</v>
+        <v>-37900.699999999997</v>
       </c>
       <c r="H32">
-        <v>-43834</v>
+        <v>-41942.300000000003</v>
       </c>
       <c r="J32" s="1">
         <f t="shared" si="4"/>
-        <v>3946.074320240637</v>
+        <v>4026.9604183673505</v>
       </c>
       <c r="K32" s="1">
         <f t="shared" si="5"/>
-        <v>1860.5971805230338</v>
+        <v>1944.1759759554088</v>
       </c>
       <c r="L32" s="1">
         <f t="shared" si="6"/>
-        <v>2220.8327245831492</v>
+        <v>2151.4962002367915</v>
       </c>
       <c r="M32" s="1">
         <f t="shared" si="7"/>
-        <v>2675.8347417822733</v>
+        <v>2707.544198186517</v>
       </c>
       <c r="N32" s="1">
         <f t="shared" si="3"/>
-        <v>0.26758347417822737</v>
+        <v>0.27075441981865173</v>
       </c>
     </row>
     <row r="33" spans="3:14" x14ac:dyDescent="0.2">
@@ -18437,36 +22184,36 @@
         <v>194.7</v>
       </c>
       <c r="E33">
-        <v>1536.95</v>
+        <v>1557.11</v>
       </c>
       <c r="F33">
-        <v>-95733.3</v>
+        <v>-98471.6</v>
       </c>
       <c r="G33">
-        <v>-92877.5</v>
+        <v>-92227.3</v>
       </c>
       <c r="H33">
-        <v>-86837.5</v>
+        <v>-84403.1</v>
       </c>
       <c r="J33" s="1">
         <f t="shared" si="4"/>
-        <v>4732.0322936015609</v>
+        <v>4931.2295468284892</v>
       </c>
       <c r="K33" s="1">
         <f t="shared" si="5"/>
-        <v>4590.8720304113513</v>
+        <v>4618.5294722967337</v>
       </c>
       <c r="L33" s="1">
         <f t="shared" si="6"/>
-        <v>4292.3189140625627</v>
+        <v>4226.7116667538621</v>
       </c>
       <c r="M33" s="1">
         <f t="shared" si="7"/>
-        <v>4538.4077460251583</v>
+        <v>4592.1568952930284</v>
       </c>
       <c r="N33" s="1">
         <f t="shared" si="3"/>
-        <v>0.45384077460251587</v>
+        <v>0.45921568952930286</v>
       </c>
     </row>
     <row r="34" spans="3:14" x14ac:dyDescent="0.2">
@@ -18477,36 +22224,36 @@
         <v>201.3</v>
       </c>
       <c r="E34">
-        <v>1495.21</v>
+        <v>1456.31</v>
       </c>
       <c r="F34">
-        <v>-102130</v>
+        <v>-98103.5</v>
       </c>
       <c r="G34">
-        <v>-104916</v>
+        <v>-110978</v>
       </c>
       <c r="H34">
-        <v>-93309.6</v>
+        <v>-103122</v>
       </c>
       <c r="J34" s="1">
         <f t="shared" si="4"/>
-        <v>4911.1189797762518</v>
+        <v>4594.7645783317503</v>
       </c>
       <c r="K34" s="1">
         <f t="shared" si="5"/>
-        <v>5045.0891890943431</v>
+        <v>5197.7532236270972</v>
       </c>
       <c r="L34" s="1">
         <f t="shared" si="6"/>
-        <v>4486.9729516824646</v>
+        <v>4829.8104843020556</v>
       </c>
       <c r="M34" s="1">
         <f t="shared" si="7"/>
-        <v>4814.3937068510195</v>
+        <v>4874.1094287536343</v>
       </c>
       <c r="N34" s="1">
         <f t="shared" si="3"/>
-        <v>0.48143937068510195</v>
+        <v>0.48741094287536346</v>
       </c>
     </row>
     <row r="35" spans="3:14" x14ac:dyDescent="0.2">
@@ -18517,36 +22264,36 @@
         <v>207.9</v>
       </c>
       <c r="E35">
-        <v>1489.31</v>
+        <v>1454.28</v>
       </c>
       <c r="F35">
-        <v>-116644</v>
+        <v>-106402</v>
       </c>
       <c r="G35">
-        <v>-108454</v>
+        <v>-110819</v>
       </c>
       <c r="H35">
-        <v>-116733</v>
+        <v>-115567</v>
       </c>
       <c r="J35" s="1">
         <f t="shared" si="4"/>
-        <v>5586.9198459356076</v>
+        <v>4976.4856227795499</v>
       </c>
       <c r="K35" s="1">
         <f t="shared" si="5"/>
-        <v>5194.6418587419876</v>
+        <v>5183.0713730080906</v>
       </c>
       <c r="L35" s="1">
         <f t="shared" si="6"/>
-        <v>5591.182695857492</v>
+        <v>5405.1381925881478</v>
       </c>
       <c r="M35" s="1">
         <f t="shared" si="7"/>
-        <v>5457.5814668450294</v>
+        <v>5188.2317294585955</v>
       </c>
       <c r="N35" s="1">
         <f t="shared" si="3"/>
-        <v>0.54575814668450295</v>
+        <v>0.51882317294585956</v>
       </c>
     </row>
     <row r="36" spans="3:14" x14ac:dyDescent="0.2">
@@ -18557,36 +22304,36 @@
         <v>214.5</v>
       </c>
       <c r="E36">
-        <v>1530.54</v>
+        <v>1547.68</v>
       </c>
       <c r="F36">
-        <v>-123094</v>
+        <v>-118821</v>
       </c>
       <c r="G36">
-        <v>-92428.1</v>
+        <v>-86679.3</v>
       </c>
       <c r="H36">
-        <v>-93749.7</v>
+        <v>-89583</v>
       </c>
       <c r="J36" s="1">
         <f t="shared" si="4"/>
-        <v>6059.0773900291224</v>
+        <v>5914.2449048353446</v>
       </c>
       <c r="K36" s="1">
         <f t="shared" si="5"/>
-        <v>4549.604456052698</v>
+        <v>4314.4108228317746</v>
       </c>
       <c r="L36" s="1">
         <f t="shared" si="6"/>
-        <v>4614.6578029149532</v>
+        <v>4458.9407706538796</v>
       </c>
       <c r="M36" s="1">
         <f t="shared" si="7"/>
-        <v>5074.4465496655912</v>
+        <v>4895.8654994403332</v>
       </c>
       <c r="N36" s="1">
         <f t="shared" si="3"/>
-        <v>0.50744465496655911</v>
+        <v>0.48958654994403333</v>
       </c>
     </row>
     <row r="37" spans="3:14" x14ac:dyDescent="0.2">
@@ -18597,36 +22344,36 @@
         <v>221.1</v>
       </c>
       <c r="E37">
-        <v>1578.84</v>
+        <v>1590.62</v>
       </c>
       <c r="F37">
-        <v>-153067</v>
+        <v>-148814</v>
       </c>
       <c r="G37">
-        <v>-134152</v>
+        <v>-139542</v>
       </c>
       <c r="H37">
-        <v>-128825</v>
+        <v>-134040</v>
       </c>
       <c r="J37" s="1">
         <f t="shared" si="4"/>
-        <v>7772.2117111634525</v>
+        <v>7612.6376768069404</v>
       </c>
       <c r="K37" s="1">
         <f t="shared" si="5"/>
-        <v>6811.7735728537136</v>
+        <v>7138.3249337897923</v>
       </c>
       <c r="L37" s="1">
         <f t="shared" si="6"/>
-        <v>6541.2869768835326</v>
+        <v>6856.8679976292706</v>
       </c>
       <c r="M37" s="1">
         <f t="shared" si="7"/>
-        <v>7041.7574203002332</v>
+        <v>7202.6102027420011</v>
       </c>
       <c r="N37" s="1">
         <f t="shared" si="3"/>
-        <v>0.70417574203002331</v>
+        <v>0.72026102027420014</v>
       </c>
     </row>
     <row r="38" spans="3:14" x14ac:dyDescent="0.2">
@@ -18637,36 +22384,36 @@
         <v>227.7</v>
       </c>
       <c r="E38">
-        <v>1596.83</v>
+        <v>1599.03</v>
       </c>
       <c r="F38">
-        <v>-147209</v>
+        <v>-143647</v>
       </c>
       <c r="G38">
-        <v>-95170.5</v>
+        <v>-98374.8</v>
       </c>
       <c r="H38">
-        <v>-85237</v>
+        <v>-88982.399999999994</v>
       </c>
       <c r="J38" s="1">
         <f t="shared" si="4"/>
-        <v>7559.9335227934262</v>
+        <v>7387.1701625163214</v>
       </c>
       <c r="K38" s="1">
         <f t="shared" si="5"/>
-        <v>4887.4909369061106</v>
+        <v>5059.0084533858044</v>
       </c>
       <c r="L38" s="1">
         <f t="shared" si="6"/>
-        <v>4377.3550101036171</v>
+        <v>4575.9962287349699</v>
       </c>
       <c r="M38" s="1">
         <f t="shared" si="7"/>
-        <v>5608.2598232677183</v>
+        <v>5674.0582815456983</v>
       </c>
       <c r="N38" s="1">
         <f t="shared" si="3"/>
-        <v>0.56082598232677183</v>
+        <v>0.56740582815456986</v>
       </c>
     </row>
     <row r="39" spans="3:14" x14ac:dyDescent="0.2">
@@ -18677,36 +22424,36 @@
         <v>234.3</v>
       </c>
       <c r="E39">
-        <v>1591.12</v>
+        <v>1594.53</v>
       </c>
       <c r="F39">
-        <v>-162862</v>
+        <v>-158594</v>
       </c>
       <c r="G39">
-        <v>-144286</v>
+        <v>-146865</v>
       </c>
       <c r="H39">
-        <v>-149215</v>
+        <v>-143951</v>
       </c>
       <c r="J39" s="1">
         <f t="shared" si="4"/>
-        <v>8333.8874200060691</v>
+        <v>8132.8802620828037</v>
       </c>
       <c r="K39" s="1">
         <f t="shared" si="5"/>
-        <v>7383.326253410838</v>
+        <v>7531.403834261012</v>
       </c>
       <c r="L39" s="1">
         <f t="shared" si="6"/>
-        <v>7635.5504130871886</v>
+        <v>7381.9706080121678</v>
       </c>
       <c r="M39" s="1">
         <f t="shared" si="7"/>
-        <v>7784.2546955013649</v>
+        <v>7682.0849014519945</v>
       </c>
       <c r="N39" s="1">
         <f t="shared" si="3"/>
-        <v>0.77842546955013658</v>
+        <v>0.76820849014519943</v>
       </c>
     </row>
     <row r="40" spans="3:14" x14ac:dyDescent="0.2">
@@ -18717,36 +22464,36 @@
         <v>240.9</v>
       </c>
       <c r="E40">
-        <v>1560.63</v>
+        <v>1562.5</v>
       </c>
       <c r="F40">
-        <v>-154935</v>
+        <v>-156989</v>
       </c>
       <c r="G40">
-        <v>-118399</v>
+        <v>-117870</v>
       </c>
       <c r="H40">
-        <v>-119921</v>
+        <v>-117909</v>
       </c>
       <c r="J40" s="1">
         <f t="shared" si="4"/>
-        <v>7776.3252770980507</v>
+        <v>7888.8587477935698</v>
       </c>
       <c r="K40" s="1">
         <f t="shared" si="5"/>
-        <v>5942.5509825612808</v>
+        <v>5923.0887552785744</v>
       </c>
       <c r="L40" s="1">
         <f t="shared" si="6"/>
-        <v>6018.9415145375506</v>
+        <v>5925.0485453986712</v>
       </c>
       <c r="M40" s="1">
         <f t="shared" si="7"/>
-        <v>6579.2725913989607</v>
+        <v>6578.9986828236042</v>
       </c>
       <c r="N40" s="1">
         <f t="shared" si="3"/>
-        <v>0.65792725913989614</v>
+        <v>0.65789986828236047</v>
       </c>
     </row>
     <row r="41" spans="3:14" x14ac:dyDescent="0.2">
@@ -18757,36 +22504,36 @@
         <v>247.5</v>
       </c>
       <c r="E41">
-        <v>1484.88</v>
+        <v>1476.17</v>
       </c>
       <c r="F41">
-        <v>-180105</v>
+        <v>-177738</v>
       </c>
       <c r="G41">
-        <v>-176234</v>
+        <v>-176199</v>
       </c>
       <c r="H41">
-        <v>-179722</v>
+        <v>-184852</v>
       </c>
       <c r="J41" s="1">
         <f t="shared" si="4"/>
-        <v>8600.8635604763076</v>
+        <v>8438.0402917082738</v>
       </c>
       <c r="K41" s="1">
         <f t="shared" si="5"/>
-        <v>8416.0050454844768</v>
+        <v>8364.9768837204538</v>
       </c>
       <c r="L41" s="1">
         <f t="shared" si="6"/>
-        <v>8582.5735033226338</v>
+        <v>8775.7745895804946</v>
       </c>
       <c r="M41" s="1">
         <f t="shared" si="7"/>
-        <v>8533.14736976114</v>
+        <v>8526.2639216697407</v>
       </c>
       <c r="N41" s="1">
         <f t="shared" si="3"/>
-        <v>0.85331473697611404</v>
+        <v>0.85262639216697411</v>
       </c>
     </row>
     <row r="42" spans="3:14" x14ac:dyDescent="0.2">
@@ -18797,36 +22544,36 @@
         <v>254.1</v>
       </c>
       <c r="E42">
-        <v>1468.63</v>
+        <v>1468.14</v>
       </c>
       <c r="F42">
-        <v>-191774</v>
+        <v>-189604</v>
       </c>
       <c r="G42">
-        <v>-143434</v>
+        <v>-144793</v>
       </c>
       <c r="H42">
-        <v>-153777</v>
+        <v>-150016</v>
       </c>
       <c r="J42" s="1">
         <f t="shared" si="4"/>
-        <v>9057.8902255520734</v>
+        <v>8952.4086349624304</v>
       </c>
       <c r="K42" s="1">
         <f t="shared" si="5"/>
-        <v>6774.6901384537841</v>
+        <v>6836.596820120436</v>
       </c>
       <c r="L42" s="1">
         <f t="shared" si="6"/>
-        <v>7263.2118285832339</v>
+        <v>7083.2078109244731</v>
       </c>
       <c r="M42" s="1">
         <f t="shared" si="7"/>
-        <v>7698.5973975296974</v>
+        <v>7624.0710886691131</v>
       </c>
       <c r="N42" s="1">
         <f t="shared" si="3"/>
-        <v>0.76985973975296973</v>
+        <v>0.76240710886691132</v>
       </c>
     </row>
     <row r="43" spans="3:14" x14ac:dyDescent="0.2">
@@ -18837,36 +22584,36 @@
         <v>260.7</v>
       </c>
       <c r="E43">
-        <v>1523.04</v>
+        <v>1525.78</v>
       </c>
       <c r="F43">
-        <v>-200789</v>
+        <v>-196527</v>
       </c>
       <c r="G43">
-        <v>-143734</v>
+        <v>-139419</v>
       </c>
       <c r="H43">
-        <v>-137978</v>
+        <v>-132795</v>
       </c>
       <c r="J43" s="1">
         <f t="shared" si="4"/>
-        <v>9835.0406017970508</v>
+        <v>9643.5974486437481</v>
       </c>
       <c r="K43" s="1">
         <f t="shared" si="5"/>
-        <v>7040.3743524729807</v>
+        <v>6841.3027863472325</v>
       </c>
       <c r="L43" s="1">
         <f t="shared" si="6"/>
-        <v>6758.4341380989672</v>
+        <v>6516.2625145280108</v>
       </c>
       <c r="M43" s="1">
         <f t="shared" si="7"/>
-        <v>7877.9496974563335</v>
+        <v>7667.0542498396635</v>
       </c>
       <c r="N43" s="1">
         <f t="shared" si="3"/>
-        <v>0.78779496974563334</v>
+        <v>0.76670542498396643</v>
       </c>
     </row>
     <row r="44" spans="3:14" x14ac:dyDescent="0.2">
@@ -18877,36 +22624,36 @@
         <v>267.3</v>
       </c>
       <c r="E44">
-        <v>1574.44</v>
+        <v>1575.15</v>
       </c>
       <c r="F44">
-        <v>-184034</v>
+        <v>-181520</v>
       </c>
       <c r="G44">
-        <v>-138540</v>
+        <v>-133191</v>
       </c>
       <c r="H44">
-        <v>-153673</v>
+        <v>-150826</v>
       </c>
       <c r="J44" s="1">
         <f t="shared" si="4"/>
-        <v>9318.5665555157229</v>
+        <v>9195.4149376078258</v>
       </c>
       <c r="K44" s="1">
         <f t="shared" si="5"/>
-        <v>7014.9766380187802</v>
+        <v>6747.1711709724777</v>
       </c>
       <c r="L44" s="1">
         <f t="shared" si="6"/>
-        <v>7781.2365013300132</v>
+        <v>7640.5225505709459</v>
       </c>
       <c r="M44" s="1">
         <f t="shared" si="7"/>
-        <v>8038.2598982881727</v>
+        <v>7861.0362197170834</v>
       </c>
       <c r="N44" s="1">
         <f t="shared" si="3"/>
-        <v>0.80382598982881737</v>
+        <v>0.78610362197170836</v>
       </c>
     </row>
     <row r="45" spans="3:14" x14ac:dyDescent="0.2">
@@ -18920,33 +22667,33 @@
         <v>992</v>
       </c>
       <c r="F45">
-        <v>-60888.3</v>
+        <v>-59773.8</v>
       </c>
       <c r="G45">
-        <v>-63089.8</v>
+        <v>-62923.5</v>
       </c>
       <c r="H45">
-        <v>-20472.3</v>
+        <v>-19853.8</v>
       </c>
       <c r="J45" s="1">
         <f t="shared" si="4"/>
-        <v>1942.5421531792745</v>
+        <v>1906.9858438436829</v>
       </c>
       <c r="K45" s="1">
         <f t="shared" si="5"/>
-        <v>2012.7774290898217</v>
+        <v>2007.4718981409578</v>
       </c>
       <c r="L45" s="1">
         <f t="shared" si="6"/>
-        <v>653.13542540245101</v>
+        <v>633.40318913142062</v>
       </c>
       <c r="M45" s="1">
         <f t="shared" si="7"/>
-        <v>1536.151669223849</v>
+        <v>1515.9536437053539</v>
       </c>
       <c r="N45" s="1">
         <f t="shared" si="3"/>
-        <v>0.15361516692238492</v>
+        <v>0.15159536437053539</v>
       </c>
     </row>
   </sheetData>
@@ -24233,8 +27980,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65C25494-99D7-C94D-A9D0-7B7B3B4C39CF}">
   <dimension ref="C1:P45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P26" sqref="P26"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -24689,7 +28436,7 @@
         <v>-23661.974651997836</v>
       </c>
       <c r="L13" s="1">
-        <f t="shared" si="6"/>
+        <f>-$E13*H13/$I$4</f>
         <v>-23305.7488258843</v>
       </c>
       <c r="M13" s="1">
@@ -25979,6 +29726,2501 @@
       <c r="N45" s="1">
         <f t="shared" si="3"/>
         <v>0.27047871146317237</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0893842B-9B04-7D43-94FE-B2D37B75CDEB}">
+  <dimension ref="C1:V45"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="I5" sqref="I5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="K1">
+        <v>68.641099999999994</v>
+      </c>
+      <c r="L1">
+        <v>68.635099999999994</v>
+      </c>
+      <c r="M1">
+        <v>6.6</v>
+      </c>
+    </row>
+    <row r="2" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="L2" t="s">
+        <v>6</v>
+      </c>
+      <c r="M2">
+        <f>M1*L1*K1</f>
+        <v>31093.845833225991</v>
+      </c>
+      <c r="P2" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>8</v>
+      </c>
+      <c r="R2" t="s">
+        <v>9</v>
+      </c>
+      <c r="S2" t="s">
+        <v>11</v>
+      </c>
+      <c r="T2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>3.3</v>
+      </c>
+      <c r="E4">
+        <v>1447.52</v>
+      </c>
+      <c r="F4">
+        <v>320671</v>
+      </c>
+      <c r="G4">
+        <v>220394</v>
+      </c>
+      <c r="H4">
+        <v>169143</v>
+      </c>
+      <c r="J4">
+        <v>1</v>
+      </c>
+      <c r="K4">
+        <v>3.3</v>
+      </c>
+      <c r="L4">
+        <v>1447.81</v>
+      </c>
+      <c r="M4">
+        <v>323216</v>
+      </c>
+      <c r="N4">
+        <v>221089</v>
+      </c>
+      <c r="O4">
+        <v>171616</v>
+      </c>
+      <c r="P4" s="1">
+        <f>-$L4*M4/$M$2</f>
+        <v>-15049.774140835172</v>
+      </c>
+      <c r="Q4" s="1">
+        <f t="shared" ref="Q4:R4" si="0">-$L4*N4/$M$2</f>
+        <v>-10294.476495665769</v>
+      </c>
+      <c r="R4" s="1">
+        <f t="shared" si="0"/>
+        <v>-7990.8854727289763</v>
+      </c>
+      <c r="S4" s="1">
+        <f>SUM(P4:R4)/3</f>
+        <v>-11111.712036409974</v>
+      </c>
+      <c r="T4" s="1">
+        <f>S4*0.0001</f>
+        <v>-1.1111712036409975</v>
+      </c>
+    </row>
+    <row r="5" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="C5">
+        <v>2</v>
+      </c>
+      <c r="D5">
+        <v>9.9</v>
+      </c>
+      <c r="E5">
+        <v>1575.59</v>
+      </c>
+      <c r="F5">
+        <v>971963</v>
+      </c>
+      <c r="G5">
+        <v>828707</v>
+      </c>
+      <c r="H5">
+        <v>825422</v>
+      </c>
+      <c r="J5">
+        <v>2</v>
+      </c>
+      <c r="K5">
+        <v>9.9</v>
+      </c>
+      <c r="L5">
+        <v>1575.22</v>
+      </c>
+      <c r="M5">
+        <v>974579</v>
+      </c>
+      <c r="N5">
+        <v>820673</v>
+      </c>
+      <c r="O5">
+        <v>821363</v>
+      </c>
+      <c r="P5" s="1">
+        <f t="shared" ref="P5:P45" si="1">-$L5*M5/$M$2</f>
+        <v>-49372.352992744141</v>
+      </c>
+      <c r="Q5" s="1">
+        <f t="shared" ref="Q5:Q45" si="2">-$L5*N5/$M$2</f>
+        <v>-41575.446472388903</v>
+      </c>
+      <c r="R5" s="1">
+        <f t="shared" ref="R5:R45" si="3">-$L5*O5/$M$2</f>
+        <v>-41610.402000432296</v>
+      </c>
+      <c r="S5" s="1">
+        <f t="shared" ref="S5:S45" si="4">SUM(P5:R5)/3</f>
+        <v>-44186.067155188452</v>
+      </c>
+      <c r="T5" s="1">
+        <f t="shared" ref="T5:T45" si="5">S5*0.0001</f>
+        <v>-4.4186067155188455</v>
+      </c>
+      <c r="V5" s="1">
+        <f>MAX(T4:T45)</f>
+        <v>4.3006320710288994</v>
+      </c>
+    </row>
+    <row r="6" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="C6">
+        <v>3</v>
+      </c>
+      <c r="D6">
+        <v>16.5</v>
+      </c>
+      <c r="E6">
+        <v>1579.47</v>
+      </c>
+      <c r="F6">
+        <v>937545</v>
+      </c>
+      <c r="G6">
+        <v>762131</v>
+      </c>
+      <c r="H6">
+        <v>767259</v>
+      </c>
+      <c r="J6">
+        <v>3</v>
+      </c>
+      <c r="K6">
+        <v>16.5</v>
+      </c>
+      <c r="L6">
+        <v>1571.87</v>
+      </c>
+      <c r="M6">
+        <v>939613</v>
+      </c>
+      <c r="N6">
+        <v>766329</v>
+      </c>
+      <c r="O6">
+        <v>768130</v>
+      </c>
+      <c r="P6" s="1">
+        <f t="shared" si="1"/>
+        <v>-47499.736579119912</v>
+      </c>
+      <c r="Q6" s="1">
+        <f t="shared" si="2"/>
+        <v>-38739.806317005394</v>
+      </c>
+      <c r="R6" s="1">
+        <f t="shared" si="3"/>
+        <v>-38830.851274428278</v>
+      </c>
+      <c r="S6" s="1">
+        <f t="shared" si="4"/>
+        <v>-41690.131390184528</v>
+      </c>
+      <c r="T6" s="1">
+        <f t="shared" si="5"/>
+        <v>-4.1690131390184533</v>
+      </c>
+      <c r="V6" s="1">
+        <f>MIN(T4:T45)</f>
+        <v>-4.4186067155188455</v>
+      </c>
+    </row>
+    <row r="7" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="C7">
+        <v>4</v>
+      </c>
+      <c r="D7">
+        <v>23.1</v>
+      </c>
+      <c r="E7">
+        <v>1347.33</v>
+      </c>
+      <c r="F7">
+        <v>899377</v>
+      </c>
+      <c r="G7">
+        <v>713963</v>
+      </c>
+      <c r="H7">
+        <v>696069</v>
+      </c>
+      <c r="J7">
+        <v>4</v>
+      </c>
+      <c r="K7">
+        <v>23.1</v>
+      </c>
+      <c r="L7">
+        <v>1327.79</v>
+      </c>
+      <c r="M7">
+        <v>904205</v>
+      </c>
+      <c r="N7">
+        <v>721215</v>
+      </c>
+      <c r="O7">
+        <v>704948</v>
+      </c>
+      <c r="P7" s="1">
+        <f t="shared" si="1"/>
+        <v>-38611.960816602477</v>
+      </c>
+      <c r="Q7" s="1">
+        <f t="shared" si="2"/>
+        <v>-30797.800631876569</v>
+      </c>
+      <c r="R7" s="1">
+        <f t="shared" si="3"/>
+        <v>-30103.156423313605</v>
+      </c>
+      <c r="S7" s="1">
+        <f t="shared" si="4"/>
+        <v>-33170.972623930887</v>
+      </c>
+      <c r="T7" s="1">
+        <f t="shared" si="5"/>
+        <v>-3.317097262393089</v>
+      </c>
+    </row>
+    <row r="8" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="C8">
+        <v>5</v>
+      </c>
+      <c r="D8">
+        <v>29.7</v>
+      </c>
+      <c r="E8">
+        <v>1476.08</v>
+      </c>
+      <c r="F8">
+        <v>831531</v>
+      </c>
+      <c r="G8">
+        <v>678939</v>
+      </c>
+      <c r="H8">
+        <v>685083</v>
+      </c>
+      <c r="J8">
+        <v>5</v>
+      </c>
+      <c r="K8">
+        <v>29.7</v>
+      </c>
+      <c r="L8">
+        <v>1501.75</v>
+      </c>
+      <c r="M8">
+        <v>832189</v>
+      </c>
+      <c r="N8">
+        <v>677400</v>
+      </c>
+      <c r="O8">
+        <v>686086</v>
+      </c>
+      <c r="P8" s="1">
+        <f t="shared" si="1"/>
+        <v>-40192.513896578334</v>
+      </c>
+      <c r="Q8" s="1">
+        <f t="shared" si="2"/>
+        <v>-32716.617154927742</v>
+      </c>
+      <c r="R8" s="1">
+        <f t="shared" si="3"/>
+        <v>-33136.127837844339</v>
+      </c>
+      <c r="S8" s="1">
+        <f t="shared" si="4"/>
+        <v>-35348.419629783471</v>
+      </c>
+      <c r="T8" s="1">
+        <f t="shared" si="5"/>
+        <v>-3.5348419629783474</v>
+      </c>
+    </row>
+    <row r="9" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="C9">
+        <v>6</v>
+      </c>
+      <c r="D9">
+        <v>36.299999999999997</v>
+      </c>
+      <c r="E9">
+        <v>1595.2</v>
+      </c>
+      <c r="F9">
+        <v>776826</v>
+      </c>
+      <c r="G9">
+        <v>598704</v>
+      </c>
+      <c r="H9">
+        <v>608860</v>
+      </c>
+      <c r="J9">
+        <v>6</v>
+      </c>
+      <c r="K9">
+        <v>36.299999999999997</v>
+      </c>
+      <c r="L9">
+        <v>1594.36</v>
+      </c>
+      <c r="M9">
+        <v>779276</v>
+      </c>
+      <c r="N9">
+        <v>600423</v>
+      </c>
+      <c r="O9">
+        <v>603052</v>
+      </c>
+      <c r="P9" s="1">
+        <f t="shared" si="1"/>
+        <v>-39957.954703446725</v>
+      </c>
+      <c r="Q9" s="1">
+        <f t="shared" si="2"/>
+        <v>-30787.134515765396</v>
+      </c>
+      <c r="R9" s="1">
+        <f t="shared" si="3"/>
+        <v>-30921.938440068672</v>
+      </c>
+      <c r="S9" s="1">
+        <f t="shared" si="4"/>
+        <v>-33889.009219760264</v>
+      </c>
+      <c r="T9" s="1">
+        <f t="shared" si="5"/>
+        <v>-3.3889009219760267</v>
+      </c>
+    </row>
+    <row r="10" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="C10">
+        <v>7</v>
+      </c>
+      <c r="D10">
+        <v>42.9</v>
+      </c>
+      <c r="E10">
+        <v>1506.1</v>
+      </c>
+      <c r="F10">
+        <v>730081</v>
+      </c>
+      <c r="G10">
+        <v>594308</v>
+      </c>
+      <c r="H10">
+        <v>571814</v>
+      </c>
+      <c r="J10">
+        <v>7</v>
+      </c>
+      <c r="K10">
+        <v>42.9</v>
+      </c>
+      <c r="L10">
+        <v>1451.87</v>
+      </c>
+      <c r="M10">
+        <v>734705</v>
+      </c>
+      <c r="N10">
+        <v>593219</v>
+      </c>
+      <c r="O10">
+        <v>572077</v>
+      </c>
+      <c r="P10" s="1">
+        <f t="shared" si="1"/>
+        <v>-34305.700043387973</v>
+      </c>
+      <c r="Q10" s="1">
+        <f t="shared" si="2"/>
+        <v>-27699.271236807388</v>
+      </c>
+      <c r="R10" s="1">
+        <f t="shared" si="3"/>
+        <v>-26712.08439267633</v>
+      </c>
+      <c r="S10" s="1">
+        <f t="shared" si="4"/>
+        <v>-29572.35189095723</v>
+      </c>
+      <c r="T10" s="1">
+        <f t="shared" si="5"/>
+        <v>-2.9572351890957234</v>
+      </c>
+    </row>
+    <row r="11" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="C11">
+        <v>8</v>
+      </c>
+      <c r="D11">
+        <v>49.5</v>
+      </c>
+      <c r="E11">
+        <v>1349.36</v>
+      </c>
+      <c r="F11">
+        <v>673104</v>
+      </c>
+      <c r="G11">
+        <v>535565</v>
+      </c>
+      <c r="H11">
+        <v>532738</v>
+      </c>
+      <c r="J11">
+        <v>8</v>
+      </c>
+      <c r="K11">
+        <v>49.5</v>
+      </c>
+      <c r="L11">
+        <v>1373.74</v>
+      </c>
+      <c r="M11">
+        <v>674942</v>
+      </c>
+      <c r="N11">
+        <v>536476</v>
+      </c>
+      <c r="O11">
+        <v>530299</v>
+      </c>
+      <c r="P11" s="1">
+        <f t="shared" si="1"/>
+        <v>-29819.23908843808</v>
+      </c>
+      <c r="Q11" s="1">
+        <f t="shared" si="2"/>
+        <v>-23701.749349142458</v>
+      </c>
+      <c r="R11" s="1">
+        <f t="shared" si="3"/>
+        <v>-23428.846729585097</v>
+      </c>
+      <c r="S11" s="1">
+        <f t="shared" si="4"/>
+        <v>-25649.945055721881</v>
+      </c>
+      <c r="T11" s="1">
+        <f t="shared" si="5"/>
+        <v>-2.5649945055721881</v>
+      </c>
+    </row>
+    <row r="12" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="C12">
+        <v>9</v>
+      </c>
+      <c r="D12">
+        <v>56.1</v>
+      </c>
+      <c r="E12">
+        <v>1547.65</v>
+      </c>
+      <c r="F12">
+        <v>618322</v>
+      </c>
+      <c r="G12">
+        <v>507913</v>
+      </c>
+      <c r="H12">
+        <v>515209</v>
+      </c>
+      <c r="J12">
+        <v>9</v>
+      </c>
+      <c r="K12">
+        <v>56.1</v>
+      </c>
+      <c r="L12">
+        <v>1578.71</v>
+      </c>
+      <c r="M12">
+        <v>618798</v>
+      </c>
+      <c r="N12">
+        <v>504044</v>
+      </c>
+      <c r="O12">
+        <v>506012</v>
+      </c>
+      <c r="P12" s="1">
+        <f t="shared" si="1"/>
+        <v>-31417.875930165897</v>
+      </c>
+      <c r="Q12" s="1">
+        <f t="shared" si="2"/>
+        <v>-25591.536907592686</v>
+      </c>
+      <c r="R12" s="1">
+        <f t="shared" si="3"/>
+        <v>-25691.457042807353</v>
+      </c>
+      <c r="S12" s="1">
+        <f t="shared" si="4"/>
+        <v>-27566.956626855314</v>
+      </c>
+      <c r="T12" s="1">
+        <f t="shared" si="5"/>
+        <v>-2.7566956626855315</v>
+      </c>
+    </row>
+    <row r="13" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="C13">
+        <v>10</v>
+      </c>
+      <c r="D13">
+        <v>62.7</v>
+      </c>
+      <c r="E13">
+        <v>1596.03</v>
+      </c>
+      <c r="F13">
+        <v>557819</v>
+      </c>
+      <c r="G13">
+        <v>485967</v>
+      </c>
+      <c r="H13">
+        <v>472269</v>
+      </c>
+      <c r="J13">
+        <v>10</v>
+      </c>
+      <c r="K13">
+        <v>62.7</v>
+      </c>
+      <c r="L13">
+        <v>1590.95</v>
+      </c>
+      <c r="M13">
+        <v>555859</v>
+      </c>
+      <c r="N13">
+        <v>478992</v>
+      </c>
+      <c r="O13">
+        <v>469216</v>
+      </c>
+      <c r="P13" s="1">
+        <f t="shared" si="1"/>
+        <v>-28441.122426387527</v>
+      </c>
+      <c r="Q13" s="1">
+        <f t="shared" si="2"/>
+        <v>-24508.13985787801</v>
+      </c>
+      <c r="R13" s="1">
+        <f t="shared" si="3"/>
+        <v>-24007.940323750896</v>
+      </c>
+      <c r="S13" s="1">
+        <f t="shared" si="4"/>
+        <v>-25652.400869338813</v>
+      </c>
+      <c r="T13" s="1">
+        <f t="shared" si="5"/>
+        <v>-2.5652400869338816</v>
+      </c>
+    </row>
+    <row r="14" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="C14">
+        <v>11</v>
+      </c>
+      <c r="D14">
+        <v>69.3</v>
+      </c>
+      <c r="E14">
+        <v>1536.06</v>
+      </c>
+      <c r="F14">
+        <v>494734</v>
+      </c>
+      <c r="G14">
+        <v>413608</v>
+      </c>
+      <c r="H14">
+        <v>411143</v>
+      </c>
+      <c r="J14">
+        <v>11</v>
+      </c>
+      <c r="K14">
+        <v>69.3</v>
+      </c>
+      <c r="L14">
+        <v>1476.49</v>
+      </c>
+      <c r="M14">
+        <v>498343</v>
+      </c>
+      <c r="N14">
+        <v>412990</v>
+      </c>
+      <c r="O14">
+        <v>410894</v>
+      </c>
+      <c r="P14" s="1">
+        <f t="shared" si="1"/>
+        <v>-23663.797010395767</v>
+      </c>
+      <c r="Q14" s="1">
+        <f t="shared" si="2"/>
+        <v>-19610.813289889389</v>
+      </c>
+      <c r="R14" s="1">
+        <f t="shared" si="3"/>
+        <v>-19511.284815457544</v>
+      </c>
+      <c r="S14" s="1">
+        <f t="shared" si="4"/>
+        <v>-20928.631705247568</v>
+      </c>
+      <c r="T14" s="1">
+        <f t="shared" si="5"/>
+        <v>-2.0928631705247569</v>
+      </c>
+    </row>
+    <row r="15" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="C15">
+        <v>12</v>
+      </c>
+      <c r="D15">
+        <v>75.900000000000006</v>
+      </c>
+      <c r="E15">
+        <v>1396.73</v>
+      </c>
+      <c r="F15">
+        <v>467673</v>
+      </c>
+      <c r="G15">
+        <v>395769</v>
+      </c>
+      <c r="H15">
+        <v>374583</v>
+      </c>
+      <c r="J15">
+        <v>12</v>
+      </c>
+      <c r="K15">
+        <v>75.900000000000006</v>
+      </c>
+      <c r="L15">
+        <v>1386.55</v>
+      </c>
+      <c r="M15">
+        <v>464925</v>
+      </c>
+      <c r="N15">
+        <v>380068</v>
+      </c>
+      <c r="O15">
+        <v>360167</v>
+      </c>
+      <c r="P15" s="1">
+        <f t="shared" si="1"/>
+        <v>-20732.133368370738</v>
+      </c>
+      <c r="Q15" s="1">
+        <f t="shared" si="2"/>
+        <v>-16948.153928160304</v>
+      </c>
+      <c r="R15" s="1">
+        <f t="shared" si="3"/>
+        <v>-16060.720070733953</v>
+      </c>
+      <c r="S15" s="1">
+        <f t="shared" si="4"/>
+        <v>-17913.669122421663</v>
+      </c>
+      <c r="T15" s="1">
+        <f t="shared" si="5"/>
+        <v>-1.7913669122421665</v>
+      </c>
+    </row>
+    <row r="16" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="C16">
+        <v>13</v>
+      </c>
+      <c r="D16">
+        <v>82.5</v>
+      </c>
+      <c r="E16">
+        <v>1480.21</v>
+      </c>
+      <c r="F16">
+        <v>402802</v>
+      </c>
+      <c r="G16">
+        <v>300254</v>
+      </c>
+      <c r="H16">
+        <v>308451</v>
+      </c>
+      <c r="J16">
+        <v>13</v>
+      </c>
+      <c r="K16">
+        <v>82.5</v>
+      </c>
+      <c r="L16">
+        <v>1547.66</v>
+      </c>
+      <c r="M16">
+        <v>402235</v>
+      </c>
+      <c r="N16">
+        <v>301784</v>
+      </c>
+      <c r="O16">
+        <v>307439</v>
+      </c>
+      <c r="P16" s="1">
+        <f t="shared" si="1"/>
+        <v>-20020.779141922347</v>
+      </c>
+      <c r="Q16" s="1">
+        <f t="shared" si="2"/>
+        <v>-15020.947487329282</v>
+      </c>
+      <c r="R16" s="1">
+        <f t="shared" si="3"/>
+        <v>-15302.418532980631</v>
+      </c>
+      <c r="S16" s="1">
+        <f t="shared" si="4"/>
+        <v>-16781.381720744088</v>
+      </c>
+      <c r="T16" s="1">
+        <f t="shared" si="5"/>
+        <v>-1.6781381720744089</v>
+      </c>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="C17">
+        <v>14</v>
+      </c>
+      <c r="D17">
+        <v>89.1</v>
+      </c>
+      <c r="E17">
+        <v>1589.74</v>
+      </c>
+      <c r="F17">
+        <v>348309</v>
+      </c>
+      <c r="G17">
+        <v>303314</v>
+      </c>
+      <c r="H17">
+        <v>305911</v>
+      </c>
+      <c r="J17">
+        <v>14</v>
+      </c>
+      <c r="K17">
+        <v>89.1</v>
+      </c>
+      <c r="L17">
+        <v>1597.57</v>
+      </c>
+      <c r="M17">
+        <v>346902</v>
+      </c>
+      <c r="N17">
+        <v>292045</v>
+      </c>
+      <c r="O17">
+        <v>294374</v>
+      </c>
+      <c r="P17" s="1">
+        <f t="shared" si="1"/>
+        <v>-17823.469991859209</v>
+      </c>
+      <c r="Q17" s="1">
+        <f t="shared" si="2"/>
+        <v>-15004.973432763498</v>
+      </c>
+      <c r="R17" s="1">
+        <f t="shared" si="3"/>
+        <v>-15124.635070952498</v>
+      </c>
+      <c r="S17" s="1">
+        <f t="shared" si="4"/>
+        <v>-15984.359498525067</v>
+      </c>
+      <c r="T17" s="1">
+        <f t="shared" si="5"/>
+        <v>-1.5984359498525069</v>
+      </c>
+    </row>
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="C18">
+        <v>15</v>
+      </c>
+      <c r="D18">
+        <v>95.7</v>
+      </c>
+      <c r="E18">
+        <v>1593.79</v>
+      </c>
+      <c r="F18">
+        <v>292338</v>
+      </c>
+      <c r="G18">
+        <v>218041</v>
+      </c>
+      <c r="H18">
+        <v>236447</v>
+      </c>
+      <c r="J18">
+        <v>15</v>
+      </c>
+      <c r="K18">
+        <v>95.7</v>
+      </c>
+      <c r="L18">
+        <v>1580.38</v>
+      </c>
+      <c r="M18">
+        <v>287845</v>
+      </c>
+      <c r="N18">
+        <v>212083</v>
+      </c>
+      <c r="O18">
+        <v>231565</v>
+      </c>
+      <c r="P18" s="1">
+        <f t="shared" si="1"/>
+        <v>-14630.048773635526</v>
+      </c>
+      <c r="Q18" s="1">
+        <f t="shared" si="2"/>
+        <v>-10779.359148357426</v>
+      </c>
+      <c r="R18" s="1">
+        <f t="shared" si="3"/>
+        <v>-11769.553906675159</v>
+      </c>
+      <c r="S18" s="1">
+        <f t="shared" si="4"/>
+        <v>-12392.987276222702</v>
+      </c>
+      <c r="T18" s="1">
+        <f t="shared" si="5"/>
+        <v>-1.2392987276222702</v>
+      </c>
+    </row>
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="C19">
+        <v>16</v>
+      </c>
+      <c r="D19">
+        <v>102.3</v>
+      </c>
+      <c r="E19">
+        <v>1535.68</v>
+      </c>
+      <c r="F19">
+        <v>237694</v>
+      </c>
+      <c r="G19">
+        <v>202264</v>
+      </c>
+      <c r="H19">
+        <v>205890</v>
+      </c>
+      <c r="J19">
+        <v>16</v>
+      </c>
+      <c r="K19">
+        <v>102.3</v>
+      </c>
+      <c r="L19">
+        <v>1471.52</v>
+      </c>
+      <c r="M19">
+        <v>239285</v>
+      </c>
+      <c r="N19">
+        <v>194440</v>
+      </c>
+      <c r="O19">
+        <v>202117</v>
+      </c>
+      <c r="P19" s="1">
+        <f t="shared" si="1"/>
+        <v>-11324.191452179341</v>
+      </c>
+      <c r="Q19" s="1">
+        <f t="shared" si="2"/>
+        <v>-9201.8964246056003</v>
+      </c>
+      <c r="R19" s="1">
+        <f t="shared" si="3"/>
+        <v>-9565.2113744703256</v>
+      </c>
+      <c r="S19" s="1">
+        <f t="shared" si="4"/>
+        <v>-10030.433083751755</v>
+      </c>
+      <c r="T19" s="1">
+        <f t="shared" si="5"/>
+        <v>-1.0030433083751755</v>
+      </c>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="C20">
+        <v>17</v>
+      </c>
+      <c r="D20">
+        <v>108.9</v>
+      </c>
+      <c r="E20">
+        <v>1424.8</v>
+      </c>
+      <c r="F20">
+        <v>186547</v>
+      </c>
+      <c r="G20">
+        <v>121364</v>
+      </c>
+      <c r="H20">
+        <v>135463</v>
+      </c>
+      <c r="J20">
+        <v>17</v>
+      </c>
+      <c r="K20">
+        <v>108.9</v>
+      </c>
+      <c r="L20">
+        <v>1408.93</v>
+      </c>
+      <c r="M20">
+        <v>182948</v>
+      </c>
+      <c r="N20">
+        <v>108148</v>
+      </c>
+      <c r="O20">
+        <v>127705</v>
+      </c>
+      <c r="P20" s="1">
+        <f t="shared" si="1"/>
+        <v>-8289.773063857032</v>
+      </c>
+      <c r="Q20" s="1">
+        <f t="shared" si="2"/>
+        <v>-4900.4218538055093</v>
+      </c>
+      <c r="R20" s="1">
+        <f t="shared" si="3"/>
+        <v>-5786.5921962517341</v>
+      </c>
+      <c r="S20" s="1">
+        <f t="shared" si="4"/>
+        <v>-6325.5957046380927</v>
+      </c>
+      <c r="T20" s="1">
+        <f t="shared" si="5"/>
+        <v>-0.63255957046380928</v>
+      </c>
+    </row>
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="C21">
+        <v>18</v>
+      </c>
+      <c r="D21">
+        <v>115.5</v>
+      </c>
+      <c r="E21">
+        <v>1479.76</v>
+      </c>
+      <c r="F21">
+        <v>148836</v>
+      </c>
+      <c r="G21">
+        <v>130948</v>
+      </c>
+      <c r="H21">
+        <v>133311</v>
+      </c>
+      <c r="J21">
+        <v>18</v>
+      </c>
+      <c r="K21">
+        <v>115.5</v>
+      </c>
+      <c r="L21">
+        <v>1546.59</v>
+      </c>
+      <c r="M21">
+        <v>141598</v>
+      </c>
+      <c r="N21">
+        <v>134435</v>
+      </c>
+      <c r="O21">
+        <v>134147</v>
+      </c>
+      <c r="P21" s="1">
+        <f t="shared" si="1"/>
+        <v>-7043.0030429362087</v>
+      </c>
+      <c r="Q21" s="1">
+        <f t="shared" si="2"/>
+        <v>-6686.7195446060614</v>
+      </c>
+      <c r="R21" s="1">
+        <f t="shared" si="3"/>
+        <v>-6672.3945903244648</v>
+      </c>
+      <c r="S21" s="1">
+        <f t="shared" si="4"/>
+        <v>-6800.7057259555777</v>
+      </c>
+      <c r="T21" s="1">
+        <f t="shared" si="5"/>
+        <v>-0.68007057259555781</v>
+      </c>
+    </row>
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="C22">
+        <v>19</v>
+      </c>
+      <c r="D22">
+        <v>122.1</v>
+      </c>
+      <c r="E22">
+        <v>1568.92</v>
+      </c>
+      <c r="F22">
+        <v>83386.899999999994</v>
+      </c>
+      <c r="G22">
+        <v>90815.6</v>
+      </c>
+      <c r="H22">
+        <v>89663.2</v>
+      </c>
+      <c r="J22">
+        <v>19</v>
+      </c>
+      <c r="K22">
+        <v>122.1</v>
+      </c>
+      <c r="L22">
+        <v>1594.43</v>
+      </c>
+      <c r="M22">
+        <v>80283.3</v>
+      </c>
+      <c r="N22">
+        <v>83397.5</v>
+      </c>
+      <c r="O22">
+        <v>81843.199999999997</v>
+      </c>
+      <c r="P22" s="1">
+        <f t="shared" si="1"/>
+        <v>-4116.76647223279</v>
+      </c>
+      <c r="Q22" s="1">
+        <f t="shared" si="2"/>
+        <v>-4276.4563971340758</v>
+      </c>
+      <c r="R22" s="1">
+        <f t="shared" si="3"/>
+        <v>-4196.7550130630243</v>
+      </c>
+      <c r="S22" s="1">
+        <f t="shared" si="4"/>
+        <v>-4196.6592941432964</v>
+      </c>
+      <c r="T22" s="1">
+        <f t="shared" si="5"/>
+        <v>-0.41966592941432967</v>
+      </c>
+    </row>
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="C23">
+        <v>20</v>
+      </c>
+      <c r="D23">
+        <v>128.69999999999999</v>
+      </c>
+      <c r="E23">
+        <v>1596.63</v>
+      </c>
+      <c r="F23">
+        <v>33107.5</v>
+      </c>
+      <c r="G23">
+        <v>24413</v>
+      </c>
+      <c r="H23">
+        <v>30898.7</v>
+      </c>
+      <c r="J23">
+        <v>20</v>
+      </c>
+      <c r="K23">
+        <v>128.69999999999999</v>
+      </c>
+      <c r="L23">
+        <v>1598.05</v>
+      </c>
+      <c r="M23">
+        <v>26678.5</v>
+      </c>
+      <c r="N23">
+        <v>18869.3</v>
+      </c>
+      <c r="O23">
+        <v>29880.9</v>
+      </c>
+      <c r="P23" s="1">
+        <f t="shared" si="1"/>
+        <v>-1371.125886249908</v>
+      </c>
+      <c r="Q23" s="1">
+        <f t="shared" si="2"/>
+        <v>-969.7766248258107</v>
+      </c>
+      <c r="R23" s="1">
+        <f t="shared" si="3"/>
+        <v>-1535.7113591260706</v>
+      </c>
+      <c r="S23" s="1">
+        <f t="shared" si="4"/>
+        <v>-1292.2046234005966</v>
+      </c>
+      <c r="T23" s="1">
+        <f t="shared" si="5"/>
+        <v>-0.12922046234005966</v>
+      </c>
+    </row>
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="C24">
+        <v>21</v>
+      </c>
+      <c r="D24">
+        <v>135.30000000000001</v>
+      </c>
+      <c r="E24">
+        <v>1592.97</v>
+      </c>
+      <c r="F24">
+        <v>-19503.5</v>
+      </c>
+      <c r="G24">
+        <v>-23069.5</v>
+      </c>
+      <c r="H24">
+        <v>-16402.099999999999</v>
+      </c>
+      <c r="J24">
+        <v>21</v>
+      </c>
+      <c r="K24">
+        <v>135.30000000000001</v>
+      </c>
+      <c r="L24">
+        <v>1578.33</v>
+      </c>
+      <c r="M24">
+        <v>-27379</v>
+      </c>
+      <c r="N24">
+        <v>-27653.5</v>
+      </c>
+      <c r="O24">
+        <v>-23076.799999999999</v>
+      </c>
+      <c r="P24" s="1">
+        <f t="shared" si="1"/>
+        <v>1389.7636626159549</v>
+      </c>
+      <c r="Q24" s="1">
+        <f t="shared" si="2"/>
+        <v>1403.6973389879217</v>
+      </c>
+      <c r="R24" s="1">
+        <f t="shared" si="3"/>
+        <v>1171.3831071060251</v>
+      </c>
+      <c r="S24" s="1">
+        <f t="shared" si="4"/>
+        <v>1321.6147029033007</v>
+      </c>
+      <c r="T24" s="1">
+        <f t="shared" si="5"/>
+        <v>0.13216147029033007</v>
+      </c>
+    </row>
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="C25">
+        <v>22</v>
+      </c>
+      <c r="D25">
+        <v>141.9</v>
+      </c>
+      <c r="E25">
+        <v>1556.67</v>
+      </c>
+      <c r="F25">
+        <v>-87392.2</v>
+      </c>
+      <c r="G25">
+        <v>-69170.3</v>
+      </c>
+      <c r="H25">
+        <v>-67051.899999999994</v>
+      </c>
+      <c r="J25">
+        <v>22</v>
+      </c>
+      <c r="K25">
+        <v>141.9</v>
+      </c>
+      <c r="L25">
+        <v>1508.46</v>
+      </c>
+      <c r="M25">
+        <v>-89011</v>
+      </c>
+      <c r="N25">
+        <v>-74082.5</v>
+      </c>
+      <c r="O25">
+        <v>-78248</v>
+      </c>
+      <c r="P25" s="1">
+        <f t="shared" si="1"/>
+        <v>4318.2028295941263</v>
+      </c>
+      <c r="Q25" s="1">
+        <f t="shared" si="2"/>
+        <v>3593.9744652167356</v>
+      </c>
+      <c r="R25" s="1">
+        <f t="shared" si="3"/>
+        <v>3796.0559370199321</v>
+      </c>
+      <c r="S25" s="1">
+        <f t="shared" si="4"/>
+        <v>3902.7444106102648</v>
+      </c>
+      <c r="T25" s="1">
+        <f t="shared" si="5"/>
+        <v>0.39027444106102649</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="C26">
+        <v>23</v>
+      </c>
+      <c r="D26">
+        <v>148.5</v>
+      </c>
+      <c r="E26">
+        <v>1495.29</v>
+      </c>
+      <c r="F26">
+        <v>-119201</v>
+      </c>
+      <c r="G26">
+        <v>-90400.8</v>
+      </c>
+      <c r="H26">
+        <v>-93465.1</v>
+      </c>
+      <c r="J26">
+        <v>23</v>
+      </c>
+      <c r="K26">
+        <v>148.5</v>
+      </c>
+      <c r="L26">
+        <v>1451.57</v>
+      </c>
+      <c r="M26">
+        <v>-120771</v>
+      </c>
+      <c r="N26">
+        <v>-100997</v>
+      </c>
+      <c r="O26">
+        <v>-102633</v>
+      </c>
+      <c r="P26" s="1">
+        <f t="shared" si="1"/>
+        <v>5638.0147187412686</v>
+      </c>
+      <c r="Q26" s="1">
+        <f t="shared" si="2"/>
+        <v>4714.8949048091999</v>
+      </c>
+      <c r="R26" s="1">
+        <f t="shared" si="3"/>
+        <v>4791.2691343830274</v>
+      </c>
+      <c r="S26" s="1">
+        <f t="shared" si="4"/>
+        <v>5048.0595859778323</v>
+      </c>
+      <c r="T26" s="1">
+        <f t="shared" si="5"/>
+        <v>0.50480595859778321</v>
+      </c>
+    </row>
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="C27">
+        <v>24</v>
+      </c>
+      <c r="D27">
+        <v>155.1</v>
+      </c>
+      <c r="E27">
+        <v>1472.99</v>
+      </c>
+      <c r="F27">
+        <v>-167786</v>
+      </c>
+      <c r="G27">
+        <v>-141417</v>
+      </c>
+      <c r="H27">
+        <v>-126790</v>
+      </c>
+      <c r="J27">
+        <v>24</v>
+      </c>
+      <c r="K27">
+        <v>155.1</v>
+      </c>
+      <c r="L27">
+        <v>1502.08</v>
+      </c>
+      <c r="M27">
+        <v>-178854</v>
+      </c>
+      <c r="N27">
+        <v>-142281</v>
+      </c>
+      <c r="O27">
+        <v>-130439</v>
+      </c>
+      <c r="P27" s="1">
+        <f t="shared" si="1"/>
+        <v>8640.0703779435698</v>
+      </c>
+      <c r="Q27" s="1">
+        <f t="shared" si="2"/>
+        <v>6873.3036635702256</v>
+      </c>
+      <c r="R27" s="1">
+        <f t="shared" si="3"/>
+        <v>6301.2409005590116</v>
+      </c>
+      <c r="S27" s="1">
+        <f t="shared" si="4"/>
+        <v>7271.5383140242693</v>
+      </c>
+      <c r="T27" s="1">
+        <f t="shared" si="5"/>
+        <v>0.72715383140242695</v>
+      </c>
+    </row>
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="C28">
+        <v>25</v>
+      </c>
+      <c r="D28">
+        <v>161.69999999999999</v>
+      </c>
+      <c r="E28">
+        <v>1517.68</v>
+      </c>
+      <c r="F28">
+        <v>-224053</v>
+      </c>
+      <c r="G28">
+        <v>-168845</v>
+      </c>
+      <c r="H28">
+        <v>-168919</v>
+      </c>
+      <c r="J28">
+        <v>25</v>
+      </c>
+      <c r="K28">
+        <v>161.69999999999999</v>
+      </c>
+      <c r="L28">
+        <v>1567.87</v>
+      </c>
+      <c r="M28">
+        <v>-231645</v>
+      </c>
+      <c r="N28">
+        <v>-163188</v>
+      </c>
+      <c r="O28">
+        <v>-164060</v>
+      </c>
+      <c r="P28" s="1">
+        <f t="shared" si="1"/>
+        <v>11680.422167717394</v>
+      </c>
+      <c r="Q28" s="1">
+        <f t="shared" si="2"/>
+        <v>8228.5597906514959</v>
+      </c>
+      <c r="R28" s="1">
+        <f t="shared" si="3"/>
+        <v>8272.5293480788096</v>
+      </c>
+      <c r="S28" s="1">
+        <f t="shared" si="4"/>
+        <v>9393.837102149233</v>
+      </c>
+      <c r="T28" s="1">
+        <f t="shared" si="5"/>
+        <v>0.9393837102149234</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="C29">
+        <v>26</v>
+      </c>
+      <c r="D29">
+        <v>168.3</v>
+      </c>
+      <c r="E29">
+        <v>1570.52</v>
+      </c>
+      <c r="F29">
+        <v>-277990</v>
+      </c>
+      <c r="G29">
+        <v>-244631</v>
+      </c>
+      <c r="H29">
+        <v>-231541</v>
+      </c>
+      <c r="J29">
+        <v>26</v>
+      </c>
+      <c r="K29">
+        <v>168.3</v>
+      </c>
+      <c r="L29">
+        <v>1594.04</v>
+      </c>
+      <c r="M29">
+        <v>-284903</v>
+      </c>
+      <c r="N29">
+        <v>-242576</v>
+      </c>
+      <c r="O29">
+        <v>-230262</v>
+      </c>
+      <c r="P29" s="1">
+        <f t="shared" si="1"/>
+        <v>14605.680511695076</v>
+      </c>
+      <c r="Q29" s="1">
+        <f t="shared" si="2"/>
+        <v>12435.767808008144</v>
+      </c>
+      <c r="R29" s="1">
+        <f t="shared" si="3"/>
+        <v>11804.485056261014</v>
+      </c>
+      <c r="S29" s="1">
+        <f t="shared" si="4"/>
+        <v>12948.644458654744</v>
+      </c>
+      <c r="T29" s="1">
+        <f t="shared" si="5"/>
+        <v>1.2948644458654746</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="C30">
+        <v>27</v>
+      </c>
+      <c r="D30">
+        <v>174.9</v>
+      </c>
+      <c r="E30">
+        <v>1594.75</v>
+      </c>
+      <c r="F30">
+        <v>-339997</v>
+      </c>
+      <c r="G30">
+        <v>-297909</v>
+      </c>
+      <c r="H30">
+        <v>-286142</v>
+      </c>
+      <c r="J30">
+        <v>27</v>
+      </c>
+      <c r="K30">
+        <v>174.9</v>
+      </c>
+      <c r="L30">
+        <v>1599.23</v>
+      </c>
+      <c r="M30">
+        <v>-347558</v>
+      </c>
+      <c r="N30">
+        <v>-288449</v>
+      </c>
+      <c r="O30">
+        <v>-289959</v>
+      </c>
+      <c r="P30" s="1">
+        <f t="shared" si="1"/>
+        <v>17875.729600037484</v>
+      </c>
+      <c r="Q30" s="1">
+        <f t="shared" si="2"/>
+        <v>14835.613990761864</v>
+      </c>
+      <c r="R30" s="1">
+        <f t="shared" si="3"/>
+        <v>14913.276860544913</v>
+      </c>
+      <c r="S30" s="1">
+        <f t="shared" si="4"/>
+        <v>15874.873483781421</v>
+      </c>
+      <c r="T30" s="1">
+        <f t="shared" si="5"/>
+        <v>1.5874873483781422</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="C31">
+        <v>28</v>
+      </c>
+      <c r="D31">
+        <v>181.5</v>
+      </c>
+      <c r="E31">
+        <v>1598.81</v>
+      </c>
+      <c r="F31">
+        <v>-376480</v>
+      </c>
+      <c r="G31">
+        <v>-298681</v>
+      </c>
+      <c r="H31">
+        <v>-300214</v>
+      </c>
+      <c r="J31">
+        <v>28</v>
+      </c>
+      <c r="K31">
+        <v>181.5</v>
+      </c>
+      <c r="L31">
+        <v>1598.24</v>
+      </c>
+      <c r="M31">
+        <v>-387945</v>
+      </c>
+      <c r="N31">
+        <v>-298366</v>
+      </c>
+      <c r="O31">
+        <v>-303463</v>
+      </c>
+      <c r="P31" s="1">
+        <f t="shared" si="1"/>
+        <v>19940.576669916289</v>
+      </c>
+      <c r="Q31" s="1">
+        <f t="shared" si="2"/>
+        <v>15336.169041220388</v>
+      </c>
+      <c r="R31" s="1">
+        <f t="shared" si="3"/>
+        <v>15598.157517129508</v>
+      </c>
+      <c r="S31" s="1">
+        <f t="shared" si="4"/>
+        <v>16958.301076088726</v>
+      </c>
+      <c r="T31" s="1">
+        <f t="shared" si="5"/>
+        <v>1.6958301076088727</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="C32">
+        <v>29</v>
+      </c>
+      <c r="D32">
+        <v>188.1</v>
+      </c>
+      <c r="E32">
+        <v>1595.57</v>
+      </c>
+      <c r="F32">
+        <v>-430529</v>
+      </c>
+      <c r="G32">
+        <v>-342234</v>
+      </c>
+      <c r="H32">
+        <v>-335551</v>
+      </c>
+      <c r="J32">
+        <v>29</v>
+      </c>
+      <c r="K32">
+        <v>188.1</v>
+      </c>
+      <c r="L32">
+        <v>1590.32</v>
+      </c>
+      <c r="M32">
+        <v>-442457</v>
+      </c>
+      <c r="N32">
+        <v>-343131</v>
+      </c>
+      <c r="O32">
+        <v>-334388</v>
+      </c>
+      <c r="P32" s="1">
+        <f t="shared" si="1"/>
+        <v>22629.822634809032</v>
+      </c>
+      <c r="Q32" s="1">
+        <f t="shared" si="2"/>
+        <v>17549.713690832457</v>
+      </c>
+      <c r="R32" s="1">
+        <f t="shared" si="3"/>
+        <v>17102.545854644683</v>
+      </c>
+      <c r="S32" s="1">
+        <f t="shared" si="4"/>
+        <v>19094.027393428722</v>
+      </c>
+      <c r="T32" s="1">
+        <f t="shared" si="5"/>
+        <v>1.9094027393428723</v>
+      </c>
+    </row>
+    <row r="33" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="C33">
+        <v>30</v>
+      </c>
+      <c r="D33">
+        <v>194.7</v>
+      </c>
+      <c r="E33">
+        <v>1584.98</v>
+      </c>
+      <c r="F33">
+        <v>-489424</v>
+      </c>
+      <c r="G33">
+        <v>-416022</v>
+      </c>
+      <c r="H33">
+        <v>-400815</v>
+      </c>
+      <c r="J33">
+        <v>30</v>
+      </c>
+      <c r="K33">
+        <v>194.7</v>
+      </c>
+      <c r="L33">
+        <v>1570.65</v>
+      </c>
+      <c r="M33">
+        <v>-500730</v>
+      </c>
+      <c r="N33">
+        <v>-410026</v>
+      </c>
+      <c r="O33">
+        <v>-399324</v>
+      </c>
+      <c r="P33" s="1">
+        <f t="shared" si="1"/>
+        <v>25293.480218506746</v>
+      </c>
+      <c r="Q33" s="1">
+        <f t="shared" si="2"/>
+        <v>20711.729914471769</v>
+      </c>
+      <c r="R33" s="1">
+        <f t="shared" si="3"/>
+        <v>20171.13752875799</v>
+      </c>
+      <c r="S33" s="1">
+        <f t="shared" si="4"/>
+        <v>22058.78255391217</v>
+      </c>
+      <c r="T33" s="1">
+        <f t="shared" si="5"/>
+        <v>2.2058782553912168</v>
+      </c>
+    </row>
+    <row r="34" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="C34">
+        <v>31</v>
+      </c>
+      <c r="D34">
+        <v>201.3</v>
+      </c>
+      <c r="E34">
+        <v>1560.78</v>
+      </c>
+      <c r="F34">
+        <v>-544877</v>
+      </c>
+      <c r="G34">
+        <v>-437188</v>
+      </c>
+      <c r="H34">
+        <v>-435939</v>
+      </c>
+      <c r="J34">
+        <v>31</v>
+      </c>
+      <c r="K34">
+        <v>201.3</v>
+      </c>
+      <c r="L34">
+        <v>1540.04</v>
+      </c>
+      <c r="M34">
+        <v>-554200</v>
+      </c>
+      <c r="N34">
+        <v>-427402</v>
+      </c>
+      <c r="O34">
+        <v>-429390</v>
+      </c>
+      <c r="P34" s="1">
+        <f t="shared" si="1"/>
+        <v>27448.845426768821</v>
+      </c>
+      <c r="Q34" s="1">
+        <f t="shared" si="2"/>
+        <v>21168.696198289152</v>
+      </c>
+      <c r="R34" s="1">
+        <f t="shared" si="3"/>
+        <v>21267.15939696908</v>
+      </c>
+      <c r="S34" s="1">
+        <f t="shared" si="4"/>
+        <v>23294.900340675686</v>
+      </c>
+      <c r="T34" s="1">
+        <f t="shared" si="5"/>
+        <v>2.3294900340675686</v>
+      </c>
+    </row>
+    <row r="35" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="C35">
+        <v>32</v>
+      </c>
+      <c r="D35">
+        <v>207.9</v>
+      </c>
+      <c r="E35">
+        <v>1547.65</v>
+      </c>
+      <c r="F35">
+        <v>-578603</v>
+      </c>
+      <c r="G35">
+        <v>-441663</v>
+      </c>
+      <c r="H35">
+        <v>-445307</v>
+      </c>
+      <c r="J35">
+        <v>32</v>
+      </c>
+      <c r="K35">
+        <v>207.9</v>
+      </c>
+      <c r="L35">
+        <v>1532.86</v>
+      </c>
+      <c r="M35">
+        <v>-588076</v>
+      </c>
+      <c r="N35">
+        <v>-436778</v>
+      </c>
+      <c r="O35">
+        <v>-439670</v>
+      </c>
+      <c r="P35" s="1">
+        <f t="shared" si="1"/>
+        <v>28990.887206263465</v>
+      </c>
+      <c r="Q35" s="1">
+        <f t="shared" si="2"/>
+        <v>21532.219869842236</v>
+      </c>
+      <c r="R35" s="1">
+        <f t="shared" si="3"/>
+        <v>21674.789275498162</v>
+      </c>
+      <c r="S35" s="1">
+        <f t="shared" si="4"/>
+        <v>24065.965450534623</v>
+      </c>
+      <c r="T35" s="1">
+        <f t="shared" si="5"/>
+        <v>2.4065965450534623</v>
+      </c>
+    </row>
+    <row r="36" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="C36">
+        <v>33</v>
+      </c>
+      <c r="D36">
+        <v>214.5</v>
+      </c>
+      <c r="E36">
+        <v>1521.76</v>
+      </c>
+      <c r="F36">
+        <v>-638304</v>
+      </c>
+      <c r="G36">
+        <v>-506081</v>
+      </c>
+      <c r="H36">
+        <v>-508516</v>
+      </c>
+      <c r="J36">
+        <v>33</v>
+      </c>
+      <c r="K36">
+        <v>214.5</v>
+      </c>
+      <c r="L36">
+        <v>1522.07</v>
+      </c>
+      <c r="M36">
+        <v>-650380</v>
+      </c>
+      <c r="N36">
+        <v>-512683</v>
+      </c>
+      <c r="O36">
+        <v>-512123</v>
+      </c>
+      <c r="P36" s="1">
+        <f t="shared" si="1"/>
+        <v>31836.649988860358</v>
+      </c>
+      <c r="Q36" s="1">
+        <f t="shared" si="2"/>
+        <v>25096.265608165835</v>
+      </c>
+      <c r="R36" s="1">
+        <f t="shared" si="3"/>
+        <v>25068.853135467165</v>
+      </c>
+      <c r="S36" s="1">
+        <f t="shared" si="4"/>
+        <v>27333.922910831123</v>
+      </c>
+      <c r="T36" s="1">
+        <f t="shared" si="5"/>
+        <v>2.7333922910831125</v>
+      </c>
+    </row>
+    <row r="37" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="C37">
+        <v>34</v>
+      </c>
+      <c r="D37">
+        <v>221.1</v>
+      </c>
+      <c r="E37">
+        <v>1529.65</v>
+      </c>
+      <c r="F37">
+        <v>-683200</v>
+      </c>
+      <c r="G37">
+        <v>-534678</v>
+      </c>
+      <c r="H37">
+        <v>-525580</v>
+      </c>
+      <c r="J37">
+        <v>34</v>
+      </c>
+      <c r="K37">
+        <v>221.1</v>
+      </c>
+      <c r="L37">
+        <v>1541.58</v>
+      </c>
+      <c r="M37">
+        <v>-696377</v>
+      </c>
+      <c r="N37">
+        <v>-533917</v>
+      </c>
+      <c r="O37">
+        <v>-526843</v>
+      </c>
+      <c r="P37" s="1">
+        <f t="shared" si="1"/>
+        <v>34525.187441203117</v>
+      </c>
+      <c r="Q37" s="1">
+        <f t="shared" si="2"/>
+        <v>26470.696911363884</v>
+      </c>
+      <c r="R37" s="1">
+        <f t="shared" si="3"/>
+        <v>26119.98002100267</v>
+      </c>
+      <c r="S37" s="1">
+        <f t="shared" si="4"/>
+        <v>29038.621457856556</v>
+      </c>
+      <c r="T37" s="1">
+        <f t="shared" si="5"/>
+        <v>2.9038621457856557</v>
+      </c>
+    </row>
+    <row r="38" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="C38">
+        <v>35</v>
+      </c>
+      <c r="D38">
+        <v>227.7</v>
+      </c>
+      <c r="E38">
+        <v>1542.69</v>
+      </c>
+      <c r="F38">
+        <v>-740599</v>
+      </c>
+      <c r="G38">
+        <v>-574486</v>
+      </c>
+      <c r="H38">
+        <v>-582545</v>
+      </c>
+      <c r="J38">
+        <v>35</v>
+      </c>
+      <c r="K38">
+        <v>227.7</v>
+      </c>
+      <c r="L38">
+        <v>1557.85</v>
+      </c>
+      <c r="M38">
+        <v>-752442</v>
+      </c>
+      <c r="N38">
+        <v>-568974</v>
+      </c>
+      <c r="O38">
+        <v>-580571</v>
+      </c>
+      <c r="P38" s="1">
+        <f t="shared" si="1"/>
+        <v>37698.513589702998</v>
+      </c>
+      <c r="Q38" s="1">
+        <f t="shared" si="2"/>
+        <v>28506.481657307373</v>
+      </c>
+      <c r="R38" s="1">
+        <f t="shared" si="3"/>
+        <v>29087.509380507014</v>
+      </c>
+      <c r="S38" s="1">
+        <f t="shared" si="4"/>
+        <v>31764.168209172465</v>
+      </c>
+      <c r="T38" s="1">
+        <f t="shared" si="5"/>
+        <v>3.1764168209172468</v>
+      </c>
+    </row>
+    <row r="39" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="C39">
+        <v>36</v>
+      </c>
+      <c r="D39">
+        <v>234.3</v>
+      </c>
+      <c r="E39">
+        <v>1574.66</v>
+      </c>
+      <c r="F39">
+        <v>-785276</v>
+      </c>
+      <c r="G39">
+        <v>-574038</v>
+      </c>
+      <c r="H39">
+        <v>-562965</v>
+      </c>
+      <c r="J39">
+        <v>36</v>
+      </c>
+      <c r="K39">
+        <v>234.3</v>
+      </c>
+      <c r="L39">
+        <v>1583.75</v>
+      </c>
+      <c r="M39">
+        <v>-796136</v>
+      </c>
+      <c r="N39">
+        <v>-564038</v>
+      </c>
+      <c r="O39">
+        <v>-554240</v>
+      </c>
+      <c r="P39" s="1">
+        <f t="shared" si="1"/>
+        <v>40550.802135021186</v>
+      </c>
+      <c r="Q39" s="1">
+        <f t="shared" si="2"/>
+        <v>28729.002751581487</v>
+      </c>
+      <c r="R39" s="1">
+        <f t="shared" si="3"/>
+        <v>28229.946360061775</v>
+      </c>
+      <c r="S39" s="1">
+        <f t="shared" si="4"/>
+        <v>32503.250415554819</v>
+      </c>
+      <c r="T39" s="1">
+        <f t="shared" si="5"/>
+        <v>3.2503250415554823</v>
+      </c>
+    </row>
+    <row r="40" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="C40">
+        <v>37</v>
+      </c>
+      <c r="D40">
+        <v>240.9</v>
+      </c>
+      <c r="E40">
+        <v>1577.43</v>
+      </c>
+      <c r="F40">
+        <v>-841932</v>
+      </c>
+      <c r="G40">
+        <v>-635982</v>
+      </c>
+      <c r="H40">
+        <v>-630751</v>
+      </c>
+      <c r="J40">
+        <v>37</v>
+      </c>
+      <c r="K40">
+        <v>240.9</v>
+      </c>
+      <c r="L40">
+        <v>1586.65</v>
+      </c>
+      <c r="M40">
+        <v>-851218</v>
+      </c>
+      <c r="N40">
+        <v>-624922</v>
+      </c>
+      <c r="O40">
+        <v>-617890</v>
+      </c>
+      <c r="P40" s="1">
+        <f t="shared" si="1"/>
+        <v>43435.766902040908</v>
+      </c>
+      <c r="Q40" s="1">
+        <f t="shared" si="2"/>
+        <v>31888.383849915306</v>
+      </c>
+      <c r="R40" s="1">
+        <f t="shared" si="3"/>
+        <v>31529.55648388786</v>
+      </c>
+      <c r="S40" s="1">
+        <f t="shared" si="4"/>
+        <v>35617.902411948024</v>
+      </c>
+      <c r="T40" s="1">
+        <f t="shared" si="5"/>
+        <v>3.5617902411948026</v>
+      </c>
+    </row>
+    <row r="41" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="C41">
+        <v>38</v>
+      </c>
+      <c r="D41">
+        <v>247.5</v>
+      </c>
+      <c r="E41">
+        <v>1583.56</v>
+      </c>
+      <c r="F41">
+        <v>-896667</v>
+      </c>
+      <c r="G41">
+        <v>-713870</v>
+      </c>
+      <c r="H41">
+        <v>-722488</v>
+      </c>
+      <c r="J41">
+        <v>38</v>
+      </c>
+      <c r="K41">
+        <v>247.5</v>
+      </c>
+      <c r="L41">
+        <v>1589.23</v>
+      </c>
+      <c r="M41">
+        <v>-905033</v>
+      </c>
+      <c r="N41">
+        <v>-698328</v>
+      </c>
+      <c r="O41">
+        <v>-707313</v>
+      </c>
+      <c r="P41" s="1">
+        <f t="shared" si="1"/>
+        <v>46256.921781385689</v>
+      </c>
+      <c r="Q41" s="1">
+        <f t="shared" si="2"/>
+        <v>35692.07274624407</v>
+      </c>
+      <c r="R41" s="1">
+        <f t="shared" si="3"/>
+        <v>36151.302898300128</v>
+      </c>
+      <c r="S41" s="1">
+        <f t="shared" si="4"/>
+        <v>39366.765808643293</v>
+      </c>
+      <c r="T41" s="1">
+        <f t="shared" si="5"/>
+        <v>3.9366765808643294</v>
+      </c>
+    </row>
+    <row r="42" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="C42">
+        <v>39</v>
+      </c>
+      <c r="D42">
+        <v>254.1</v>
+      </c>
+      <c r="E42">
+        <v>1592.84</v>
+      </c>
+      <c r="F42">
+        <v>-942989</v>
+      </c>
+      <c r="G42">
+        <v>-735730</v>
+      </c>
+      <c r="H42">
+        <v>-742688</v>
+      </c>
+      <c r="J42">
+        <v>39</v>
+      </c>
+      <c r="K42">
+        <v>254.1</v>
+      </c>
+      <c r="L42">
+        <v>1595.62</v>
+      </c>
+      <c r="M42">
+        <v>-950395</v>
+      </c>
+      <c r="N42">
+        <v>-728248</v>
+      </c>
+      <c r="O42">
+        <v>-727614</v>
+      </c>
+      <c r="P42" s="1">
+        <f t="shared" si="1"/>
+        <v>48770.720676808152</v>
+      </c>
+      <c r="Q42" s="1">
+        <f t="shared" si="2"/>
+        <v>37370.966589096308</v>
+      </c>
+      <c r="R42" s="1">
+        <f t="shared" si="3"/>
+        <v>37338.432077751975</v>
+      </c>
+      <c r="S42" s="1">
+        <f t="shared" si="4"/>
+        <v>41160.039781218809</v>
+      </c>
+      <c r="T42" s="1">
+        <f t="shared" si="5"/>
+        <v>4.1160039781218813</v>
+      </c>
+    </row>
+    <row r="43" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="C43">
+        <v>40</v>
+      </c>
+      <c r="D43">
+        <v>260.7</v>
+      </c>
+      <c r="E43">
+        <v>1596.03</v>
+      </c>
+      <c r="F43">
+        <v>-992903</v>
+      </c>
+      <c r="G43">
+        <v>-767330</v>
+      </c>
+      <c r="H43">
+        <v>-761456</v>
+      </c>
+      <c r="J43">
+        <v>40</v>
+      </c>
+      <c r="K43">
+        <v>260.7</v>
+      </c>
+      <c r="L43">
+        <v>1597.37</v>
+      </c>
+      <c r="M43" s="1">
+        <v>-1002080</v>
+      </c>
+      <c r="N43">
+        <v>-756924</v>
+      </c>
+      <c r="O43">
+        <v>-752434</v>
+      </c>
+      <c r="P43" s="1">
+        <f t="shared" si="1"/>
+        <v>51479.400077604609</v>
+      </c>
+      <c r="Q43" s="1">
+        <f t="shared" si="2"/>
+        <v>38885.112390568407</v>
+      </c>
+      <c r="R43" s="1">
+        <f t="shared" si="3"/>
+        <v>38654.449662693944</v>
+      </c>
+      <c r="S43" s="1">
+        <f t="shared" si="4"/>
+        <v>43006.320710288994</v>
+      </c>
+      <c r="T43" s="1">
+        <f t="shared" si="5"/>
+        <v>4.3006320710288994</v>
+      </c>
+    </row>
+    <row r="44" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="C44">
+        <v>41</v>
+      </c>
+      <c r="D44">
+        <v>267.3</v>
+      </c>
+      <c r="E44">
+        <v>1597.09</v>
+      </c>
+      <c r="F44">
+        <v>-934183</v>
+      </c>
+      <c r="G44">
+        <v>-719919</v>
+      </c>
+      <c r="H44">
+        <v>-755112</v>
+      </c>
+      <c r="J44">
+        <v>41</v>
+      </c>
+      <c r="K44">
+        <v>267.3</v>
+      </c>
+      <c r="L44">
+        <v>1597.91</v>
+      </c>
+      <c r="M44">
+        <v>-943277</v>
+      </c>
+      <c r="N44">
+        <v>-720363</v>
+      </c>
+      <c r="O44">
+        <v>-754419</v>
+      </c>
+      <c r="P44" s="1">
+        <f t="shared" si="1"/>
+        <v>48474.921987918678</v>
+      </c>
+      <c r="Q44" s="1">
+        <f t="shared" si="2"/>
+        <v>37019.391152315875</v>
+      </c>
+      <c r="R44" s="1">
+        <f t="shared" si="3"/>
+        <v>38769.525994170974</v>
+      </c>
+      <c r="S44" s="1">
+        <f t="shared" si="4"/>
+        <v>41421.279711468516</v>
+      </c>
+      <c r="T44" s="1">
+        <f t="shared" si="5"/>
+        <v>4.1421279711468522</v>
+      </c>
+    </row>
+    <row r="45" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="C45">
+        <v>42</v>
+      </c>
+      <c r="D45">
+        <v>273.89999999999998</v>
+      </c>
+      <c r="E45">
+        <v>973</v>
+      </c>
+      <c r="F45">
+        <v>-188566</v>
+      </c>
+      <c r="G45">
+        <v>-8741.4</v>
+      </c>
+      <c r="H45">
+        <v>-131780</v>
+      </c>
+      <c r="J45">
+        <v>42</v>
+      </c>
+      <c r="K45">
+        <v>273.89999999999998</v>
+      </c>
+      <c r="L45">
+        <v>973</v>
+      </c>
+      <c r="M45">
+        <v>-192059</v>
+      </c>
+      <c r="N45">
+        <v>-8448.4500000000007</v>
+      </c>
+      <c r="O45">
+        <v>-132724</v>
+      </c>
+      <c r="P45" s="1">
+        <f t="shared" si="1"/>
+        <v>6009.9804958932564</v>
+      </c>
+      <c r="Q45" s="1">
+        <f t="shared" si="2"/>
+        <v>264.37198840215444</v>
+      </c>
+      <c r="R45" s="1">
+        <f t="shared" si="3"/>
+        <v>4153.247967223283</v>
+      </c>
+      <c r="S45" s="1">
+        <f t="shared" si="4"/>
+        <v>3475.8668171728982</v>
+      </c>
+      <c r="T45" s="1">
+        <f t="shared" si="5"/>
+        <v>0.34758668171728985</v>
       </c>
     </row>
   </sheetData>

--- a/USHPRR/UMo_pressure_grad.xlsx
+++ b/USHPRR/UMo_pressure_grad.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10708"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/benjaminbeeler/projects/spreadsheets/USHPRR/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/beelbw/projects/spreadsheets/USHPRR/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBA07622-9BBD-2E4B-96D8-5B0B615B5C00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A485D956-E2D8-6C41-82E7-633D0FF0E9A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2500" yWindow="2080" windowWidth="28040" windowHeight="17440" activeTab="7" xr2:uid="{6E4A99DF-98A3-AB47-B80B-7671C87299C2}"/>
+    <workbookView xWindow="2500" yWindow="2080" windowWidth="34220" windowHeight="20460" activeTab="6" xr2:uid="{6E4A99DF-98A3-AB47-B80B-7671C87299C2}"/>
   </bookViews>
   <sheets>
     <sheet name="1E-5" sheetId="1" r:id="rId1"/>
@@ -27980,8 +27980,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65C25494-99D7-C94D-A9D0-7B7B3B4C39CF}">
   <dimension ref="C1:P45"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -29738,8 +29738,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0893842B-9B04-7D43-94FE-B2D37B75CDEB}">
   <dimension ref="C1:V45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L32" sqref="L32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
